--- a/data/bol_specs.xlsx
+++ b/data/bol_specs.xlsx
@@ -446,19 +446,19 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Spec Name</t>
+          <t>Specification</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Spec Value</t>
+          <t>Value</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2000 Series Airfryer - NA230/00 - Kijkvenster - RapidAir - 6.2L - Tot 5 Personen - Zwart</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -480,7 +480,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2000 Series Airfryer - NA230/00 - Kijkvenster - RapidAir - 6.2L - Tot 5 Personen - Zwart</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -502,7 +502,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2000 Series Airfryer - NA230/00 - Kijkvenster - RapidAir - 6.2L - Tot 5 Personen - Zwart</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -524,7 +524,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2000 Series Airfryer - NA230/00 - Kijkvenster - RapidAir - 6.2L - Tot 5 Personen - Zwart</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -546,7 +546,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2000 Series Airfryer - NA230/00 - Kijkvenster - RapidAir - 6.2L - Tot 5 Personen - Zwart</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -568,7 +568,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2000 Series Airfryer - NA230/00 - Kijkvenster - RapidAir - 6.2L - Tot 5 Personen - Zwart</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -590,7 +590,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2000 Series Airfryer - NA230/00 - Kijkvenster - RapidAir - 6.2L - Tot 5 Personen - Zwart</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -612,7 +612,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2000 Series Airfryer - NA230/00 - Kijkvenster - RapidAir - 6.2L - Tot 5 Personen - Zwart</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -634,7 +634,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2000 Series Airfryer - NA230/00 - Kijkvenster - RapidAir - 6.2L - Tot 5 Personen - Zwart</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -656,7 +656,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2000 Series Airfryer - NA230/00 - Kijkvenster - RapidAir - 6.2L - Tot 5 Personen - Zwart</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -678,7 +678,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2000 Series Airfryer - NA230/00 - Kijkvenster - RapidAir - 6.2L - Tot 5 Personen - Zwart</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -700,7 +700,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2000 Series Airfryer - NA230/00 - Kijkvenster - RapidAir - 6.2L - Tot 5 Personen - Zwart</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -722,7 +722,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2000 Series Airfryer - NA230/00 - Kijkvenster - RapidAir - 6.2L - Tot 5 Personen - Zwart</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -744,7 +744,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2000 Series Airfryer - NA230/00 - Kijkvenster - RapidAir - 6.2L - Tot 5 Personen - Zwart</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -766,7 +766,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2000 Series Airfryer - NA230/00 - Kijkvenster - RapidAir - 6.2L - Tot 5 Personen - Zwart</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -788,7 +788,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2000 Series Airfryer - NA230/00 - Kijkvenster - RapidAir - 6.2L - Tot 5 Personen - Zwart</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2000 Series Airfryer - NA230/00 - Kijkvenster - RapidAir - 6.2L - Tot 5 Personen - Zwart</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2000 Series Airfryer - NA230/00 - Kijkvenster - RapidAir - 6.2L - Tot 5 Personen - Zwart</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -854,7 +854,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2000 Series Airfryer - NA230/00 - Kijkvenster - RapidAir - 6.2L - Tot 5 Personen - Zwart</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -876,7 +876,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2000 Series Airfryer - NA230/00 - Kijkvenster - RapidAir - 6.2L - Tot 5 Personen - Zwart</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -898,7 +898,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2000 Series Airfryer - NA230/00 - Kijkvenster - RapidAir - 6.2L - Tot 5 Personen - Zwart</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -920,7 +920,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2000 Series Airfryer - NA230/00 - Kijkvenster - RapidAir - 6.2L - Tot 5 Personen - Zwart</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -942,7 +942,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2000 Series Airfryer - NA230/00 - Kijkvenster - RapidAir - 6.2L - Tot 5 Personen - Zwart</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2000 Series Airfryer - NA230/00 - Kijkvenster - RapidAir - 6.2L - Tot 5 Personen - Zwart</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -986,7 +986,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2000 Series Airfryer - NA230/00 - Kijkvenster - RapidAir - 6.2L - Tot 5 Personen - Zwart</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1008,7 +1008,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2000 Series Airfryer - NA230/00 - Kijkvenster - RapidAir - 6.2L - Tot 5 Personen - Zwart</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1030,7 +1030,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2000 Series Airfryer - NA230/00 - Kijkvenster - RapidAir - 6.2L - Tot 5 Personen - Zwart</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1052,7 +1052,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2000 Series Airfryer - NA230/00 - Kijkvenster - RapidAir - 6.2L - Tot 5 Personen - Zwart</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1074,7 +1074,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2000 Series Airfryer - NA230/00 - Kijkvenster - RapidAir - 6.2L - Tot 5 Personen - Zwart</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1096,7 +1096,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2000 Series Airfryer - NA230/00 - Kijkvenster - RapidAir - 6.2L - Tot 5 Personen - Zwart</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1118,7 +1118,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2000 Series Airfryer - NA230/00 - Kijkvenster - RapidAir - 6.2L - Tot 5 Personen - Zwart</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1140,7 +1140,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2000 Series Airfryer - NA230/00 - Kijkvenster - RapidAir - 6.2L - Tot 5 Personen - Zwart</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1162,7 +1162,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2000 Series Airfryer - NA230/00 - Kijkvenster - RapidAir - 6.2L - Tot 5 Personen - Zwart</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1184,7 +1184,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2000 Series Airfryer - NA230/00 - Kijkvenster - RapidAir - 6.2L - Tot 5 Personen - Zwart</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1206,7 +1206,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2000 Series Airfryer - NA230/00 - Kijkvenster - RapidAir - 6.2L - Tot 5 Personen - Zwart</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1228,7 +1228,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2000 Series Airfryer - NA230/00 - Kijkvenster - RapidAir - 6.2L - Tot 5 Personen - Zwart</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1250,7 +1250,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2000 Series Airfryer - NA230/00 - Kijkvenster - RapidAir - 6.2L - Tot 5 Personen - Zwart</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1272,7 +1272,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2000 Series Airfryer - NA230/00 - Kijkvenster - RapidAir - 6.2L - Tot 5 Personen - Zwart</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1294,7 +1294,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2000 Series Airfryer - NA230/00 - Kijkvenster - RapidAir - 6.2L - Tot 5 Personen - Zwart</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1316,7 +1316,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2000 Series Airfryer - NA230/00 - Kijkvenster - RapidAir - 6.2L - Tot 5 Personen - Zwart</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1338,7 +1338,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2000 Series Airfryer - NA230/00 - Kijkvenster - RapidAir - 6.2L - Tot 5 Personen - Zwart</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1360,7 +1360,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2000 Series Airfryer - NA230/00 - Kijkvenster - RapidAir - 6.2L - Tot 5 Personen - Zwart</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1382,7 +1382,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2000 Series Airfryer - NA230/00 - Kijkvenster - RapidAir - 6.2L - Tot 5 Personen - Zwart</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1404,7 +1404,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2000 Series Airfryer - NA230/00 - Kijkvenster - RapidAir - 6.2L - Tot 5 Personen - Zwart</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1426,7 +1426,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2000 Series Airfryer - NA230/00 - Kijkvenster - RapidAir - 6.2L - Tot 5 Personen - Zwart</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1448,7 +1448,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2000 Series Airfryer - NA230/00 - Kijkvenster - RapidAir - 6.2L - Tot 5 Personen - Zwart</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1470,7 +1470,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2000 Series Airfryer - NA230/00 - Kijkvenster - RapidAir - 6.2L - Tot 5 Personen - Zwart</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1492,7 +1492,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2000 Series Airfryer - NA230/00 - Kijkvenster - RapidAir - 6.2L - Tot 5 Personen - Zwart</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1514,7 +1514,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2000 Series Airfryer - NA230/00 - Kijkvenster - RapidAir - 6.2L - Tot 5 Personen - Zwart</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1536,7 +1536,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2000 Series Airfryer - NA230/00 - Kijkvenster - RapidAir - 6.2L - Tot 5 Personen - Zwart</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1558,7 +1558,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2000 Series Airfryer - NA230/00 - Kijkvenster - RapidAir - 6.2L - Tot 5 Personen - Zwart</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1580,7 +1580,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2000 Series Airfryer - NA230/00 - Kijkvenster - RapidAir - 6.2L - Tot 5 Personen - Zwart</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1602,7 +1602,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2000 Series Airfryer - NA230/00 - Kijkvenster - RapidAir - 6.2L - Tot 5 Personen - Zwart</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1624,7 +1624,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2000 Series Airfryer - NA230/00 - Kijkvenster - RapidAir - 6.2L - Tot 5 Personen - Zwart</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1646,7 +1646,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2000 Series Airfryer - NA230/00 - Kijkvenster - RapidAir - 6.2L - Tot 5 Personen - Zwart</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1668,7 +1668,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2000 Series Airfryer - NA230/00 - Kijkvenster - RapidAir - 6.2L - Tot 5 Personen - Zwart</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1690,7 +1690,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2000 Series Airfryer - NA230/00 - Kijkvenster - RapidAir - 6.2L - Tot 5 Personen - Zwart</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1712,7 +1712,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2000 Series Airfryer - NA230/00 - Kijkvenster - RapidAir - 6.2L - Tot 5 Personen - Zwart</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1734,7 +1734,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2000 Series Airfryer - NA230/00 - Kijkvenster - RapidAir - 6.2L - Tot 5 Personen - Zwart</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1756,7 +1756,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2000 Series Airfryer - NA230/00 - Kijkvenster - RapidAir - 6.2L - Tot 5 Personen - Zwart</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1778,7 +1778,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2000 Series Airfryer - NA230/00 - Kijkvenster - RapidAir - 6.2L - Tot 5 Personen - Zwart</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1800,7 +1800,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2000 Series Airfryer - NA230/00 - Kijkvenster - RapidAir - 6.2L - Tot 5 Personen - Zwart</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1822,7 +1822,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2000 Series Airfryer - NA230/00 - Kijkvenster - RapidAir - 6.2L - Tot 5 Personen - Zwart</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1844,7 +1844,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2000 Series Airfryer - NA230/00 - Kijkvenster - RapidAir - 6.2L - Tot 5 Personen - Zwart</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1866,7 +1866,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2000 Series Airfryer - NA230/00 - Kijkvenster - RapidAir - 6.2L - Tot 5 Personen - Zwart</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1888,7 +1888,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2000 Series Airfryer - NA230/00 - Kijkvenster - RapidAir - 6.2L - Tot 5 Personen - Zwart</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1910,7 +1910,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2000 Series Airfryer - NA230/00 - Kijkvenster - RapidAir - 6.2L - Tot 5 Personen - Zwart</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1932,7 +1932,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2000 Series Airfryer - NA230/00 - Kijkvenster - RapidAir - 6.2L - Tot 5 Personen - Zwart</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1954,7 +1954,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2000 Series Airfryer - NA230/00 - Kijkvenster - RapidAir - 6.2L - Tot 5 Personen - Zwart</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1976,7 +1976,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2000 Series Airfryer - NA230/00 - Kijkvenster - RapidAir - 6.2L - Tot 5 Personen - Zwart</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1998,7 +1998,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2000 Series Airfryer - NA230/00 - Kijkvenster - RapidAir - 6.2L - Tot 5 Personen - Zwart</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2020,7 +2020,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2000 Series Airfryer - NA230/00 - Kijkvenster - RapidAir - 6.2L - Tot 5 Personen - Zwart</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3626,7 +3626,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5000 Series Dual Basket Airfryer - NA551/00 - Stoomfunctie - Dubbele Mand - 9L - Tot 6 Personen</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -3648,7 +3648,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5000 Series Dual Basket Airfryer - NA551/00 - Stoomfunctie - Dubbele Mand - 9L - Tot 6 Personen</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -3670,7 +3670,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5000 Series Dual Basket Airfryer - NA551/00 - Stoomfunctie - Dubbele Mand - 9L - Tot 6 Personen</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -3692,7 +3692,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5000 Series Dual Basket Airfryer - NA551/00 - Stoomfunctie - Dubbele Mand - 9L - Tot 6 Personen</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -3714,7 +3714,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5000 Series Dual Basket Airfryer - NA551/00 - Stoomfunctie - Dubbele Mand - 9L - Tot 6 Personen</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -3736,7 +3736,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5000 Series Dual Basket Airfryer - NA551/00 - Stoomfunctie - Dubbele Mand - 9L - Tot 6 Personen</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -3758,7 +3758,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5000 Series Dual Basket Airfryer - NA551/00 - Stoomfunctie - Dubbele Mand - 9L - Tot 6 Personen</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -3780,7 +3780,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5000 Series Dual Basket Airfryer - NA551/00 - Stoomfunctie - Dubbele Mand - 9L - Tot 6 Personen</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -3802,7 +3802,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5000 Series Dual Basket Airfryer - NA551/00 - Stoomfunctie - Dubbele Mand - 9L - Tot 6 Personen</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -3824,7 +3824,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5000 Series Dual Basket Airfryer - NA551/00 - Stoomfunctie - Dubbele Mand - 9L - Tot 6 Personen</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -3846,7 +3846,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5000 Series Dual Basket Airfryer - NA551/00 - Stoomfunctie - Dubbele Mand - 9L - Tot 6 Personen</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -3868,7 +3868,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5000 Series Dual Basket Airfryer - NA551/00 - Stoomfunctie - Dubbele Mand - 9L - Tot 6 Personen</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -3890,7 +3890,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5000 Series Dual Basket Airfryer - NA551/00 - Stoomfunctie - Dubbele Mand - 9L - Tot 6 Personen</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -3912,7 +3912,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5000 Series Dual Basket Airfryer - NA551/00 - Stoomfunctie - Dubbele Mand - 9L - Tot 6 Personen</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -3934,7 +3934,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5000 Series Dual Basket Airfryer - NA551/00 - Stoomfunctie - Dubbele Mand - 9L - Tot 6 Personen</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -3956,7 +3956,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5000 Series Dual Basket Airfryer - NA551/00 - Stoomfunctie - Dubbele Mand - 9L - Tot 6 Personen</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -3978,7 +3978,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5000 Series Dual Basket Airfryer - NA551/00 - Stoomfunctie - Dubbele Mand - 9L - Tot 6 Personen</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -4000,7 +4000,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5000 Series Dual Basket Airfryer - NA551/00 - Stoomfunctie - Dubbele Mand - 9L - Tot 6 Personen</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -4022,7 +4022,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5000 Series Dual Basket Airfryer - NA551/00 - Stoomfunctie - Dubbele Mand - 9L - Tot 6 Personen</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -4044,7 +4044,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5000 Series Dual Basket Airfryer - NA551/00 - Stoomfunctie - Dubbele Mand - 9L - Tot 6 Personen</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -4066,7 +4066,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5000 Series Dual Basket Airfryer - NA551/00 - Stoomfunctie - Dubbele Mand - 9L - Tot 6 Personen</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -4088,7 +4088,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5000 Series Dual Basket Airfryer - NA551/00 - Stoomfunctie - Dubbele Mand - 9L - Tot 6 Personen</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -4110,7 +4110,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5000 Series Dual Basket Airfryer - NA551/00 - Stoomfunctie - Dubbele Mand - 9L - Tot 6 Personen</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -4132,7 +4132,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5000 Series Dual Basket Airfryer - NA551/00 - Stoomfunctie - Dubbele Mand - 9L - Tot 6 Personen</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -4154,7 +4154,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5000 Series Dual Basket Airfryer - NA551/00 - Stoomfunctie - Dubbele Mand - 9L - Tot 6 Personen</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -4176,7 +4176,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5000 Series Dual Basket Airfryer - NA551/00 - Stoomfunctie - Dubbele Mand - 9L - Tot 6 Personen</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -4198,7 +4198,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5000 Series Dual Basket Airfryer - NA551/00 - Stoomfunctie - Dubbele Mand - 9L - Tot 6 Personen</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -4220,7 +4220,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5000 Series Dual Basket Airfryer - NA551/00 - Stoomfunctie - Dubbele Mand - 9L - Tot 6 Personen</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -4242,7 +4242,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5000 Series Dual Basket Airfryer - NA551/00 - Stoomfunctie - Dubbele Mand - 9L - Tot 6 Personen</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -4264,7 +4264,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5000 Series Dual Basket Airfryer - NA551/00 - Stoomfunctie - Dubbele Mand - 9L - Tot 6 Personen</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -4286,7 +4286,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5000 Series Dual Basket Airfryer - NA551/00 - Stoomfunctie - Dubbele Mand - 9L - Tot 6 Personen</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -4308,7 +4308,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5000 Series Dual Basket Airfryer - NA551/00 - Stoomfunctie - Dubbele Mand - 9L - Tot 6 Personen</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -4330,7 +4330,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5000 Series Dual Basket Airfryer - NA551/00 - Stoomfunctie - Dubbele Mand - 9L - Tot 6 Personen</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -4352,7 +4352,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5000 Series Dual Basket Airfryer - NA551/00 - Stoomfunctie - Dubbele Mand - 9L - Tot 6 Personen</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -4374,7 +4374,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5000 Series Dual Basket Airfryer - NA551/00 - Stoomfunctie - Dubbele Mand - 9L - Tot 6 Personen</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -4396,7 +4396,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5000 Series Dual Basket Airfryer - NA551/00 - Stoomfunctie - Dubbele Mand - 9L - Tot 6 Personen</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -4418,7 +4418,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5000 Series Dual Basket Airfryer - NA551/00 - Stoomfunctie - Dubbele Mand - 9L - Tot 6 Personen</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -4440,7 +4440,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5000 Series Dual Basket Airfryer - NA551/00 - Stoomfunctie - Dubbele Mand - 9L - Tot 6 Personen</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -4462,7 +4462,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5000 Series Dual Basket Airfryer - NA551/00 - Stoomfunctie - Dubbele Mand - 9L - Tot 6 Personen</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -4484,7 +4484,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5000 Series Dual Basket Airfryer - NA551/00 - Stoomfunctie - Dubbele Mand - 9L - Tot 6 Personen</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -4506,7 +4506,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5000 Series Dual Basket Airfryer - NA551/00 - Stoomfunctie - Dubbele Mand - 9L - Tot 6 Personen</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -4528,7 +4528,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5000 Series Dual Basket Airfryer - NA551/00 - Stoomfunctie - Dubbele Mand - 9L - Tot 6 Personen</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -4550,7 +4550,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5000 Series Dual Basket Airfryer - NA551/00 - Stoomfunctie - Dubbele Mand - 9L - Tot 6 Personen</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -4572,7 +4572,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5000 Series Dual Basket Airfryer - NA551/00 - Stoomfunctie - Dubbele Mand - 9L - Tot 6 Personen</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -4594,7 +4594,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5000 Series Dual Basket Airfryer - NA551/00 - Stoomfunctie - Dubbele Mand - 9L - Tot 6 Personen</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -4616,7 +4616,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5000 Series Dual Basket Airfryer - NA551/00 - Stoomfunctie - Dubbele Mand - 9L - Tot 6 Personen</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -4638,7 +4638,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5000 Series Dual Basket Airfryer - NA551/00 - Stoomfunctie - Dubbele Mand - 9L - Tot 6 Personen</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -4660,7 +4660,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5000 Series Dual Basket Airfryer - NA551/00 - Stoomfunctie - Dubbele Mand - 9L - Tot 6 Personen</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -4682,7 +4682,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5000 Series Dual Basket Airfryer - NA551/00 - Stoomfunctie - Dubbele Mand - 9L - Tot 6 Personen</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -4704,7 +4704,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5000 Series Dual Basket Airfryer - NA551/00 - Stoomfunctie - Dubbele Mand - 9L - Tot 6 Personen</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -4726,7 +4726,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5000 Series Dual Basket Airfryer - NA551/00 - Stoomfunctie - Dubbele Mand - 9L - Tot 6 Personen</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -4748,7 +4748,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5000 Series Dual Basket Airfryer - NA551/00 - Stoomfunctie - Dubbele Mand - 9L - Tot 6 Personen</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -4770,7 +4770,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5000 Series Dual Basket Airfryer - NA551/00 - Stoomfunctie - Dubbele Mand - 9L - Tot 6 Personen</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -4792,7 +4792,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5000 Series Dual Basket Airfryer - NA551/00 - Stoomfunctie - Dubbele Mand - 9L - Tot 6 Personen</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -4814,7 +4814,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5000 Series Dual Basket Airfryer - NA551/00 - Stoomfunctie - Dubbele Mand - 9L - Tot 6 Personen</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -4836,7 +4836,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5000 Series Dual Basket Airfryer - NA551/00 - Stoomfunctie - Dubbele Mand - 9L - Tot 6 Personen</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -4858,7 +4858,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5000 Series Dual Basket Airfryer - NA551/00 - Stoomfunctie - Dubbele Mand - 9L - Tot 6 Personen</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -4880,7 +4880,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5000 Series Dual Basket Airfryer - NA551/00 - Stoomfunctie - Dubbele Mand - 9L - Tot 6 Personen</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -4902,7 +4902,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5000 Series Dual Basket Airfryer - NA551/00 - Stoomfunctie - Dubbele Mand - 9L - Tot 6 Personen</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -4924,7 +4924,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5000 Series Dual Basket Airfryer - NA551/00 - Stoomfunctie - Dubbele Mand - 9L - Tot 6 Personen</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -4946,7 +4946,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5000 Series Dual Basket Airfryer - NA551/00 - Stoomfunctie - Dubbele Mand - 9L - Tot 6 Personen</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -4968,7 +4968,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5000 Series Dual Basket Airfryer - NA551/00 - Stoomfunctie - Dubbele Mand - 9L - Tot 6 Personen</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -4990,7 +4990,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5000 Series Dual Basket Airfryer - NA551/00 - Stoomfunctie - Dubbele Mand - 9L - Tot 6 Personen</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -5012,7 +5012,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5000 Series Dual Basket Airfryer - NA551/00 - Stoomfunctie - Dubbele Mand - 9L - Tot 6 Personen</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -5034,7 +5034,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5000 Series Dual Basket Airfryer - NA551/00 - Stoomfunctie - Dubbele Mand - 9L - Tot 6 Personen</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -5056,7 +5056,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5000 Series Dual Basket Airfryer - NA551/00 - Stoomfunctie - Dubbele Mand - 9L - Tot 6 Personen</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -5078,7 +5078,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 1000 series NA130/00 Airfryer 1000-serie, 6,2 liter</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -5100,7 +5100,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 1000 series NA130/00 Airfryer 1000-serie, 6,2 liter</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -5122,7 +5122,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 1000 series NA130/00 Airfryer 1000-serie, 6,2 liter</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -5144,7 +5144,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 1000 series NA130/00 Airfryer 1000-serie, 6,2 liter</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -5166,7 +5166,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 1000 series NA130/00 Airfryer 1000-serie, 6,2 liter</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -5188,7 +5188,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 1000 series NA130/00 Airfryer 1000-serie, 6,2 liter</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -5210,7 +5210,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 1000 series NA130/00 Airfryer 1000-serie, 6,2 liter</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -5232,7 +5232,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 1000 series NA130/00 Airfryer 1000-serie, 6,2 liter</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -5254,7 +5254,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 1000 series NA130/00 Airfryer 1000-serie, 6,2 liter</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -5276,7 +5276,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 1000 series NA130/00 Airfryer 1000-serie, 6,2 liter</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -5298,7 +5298,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 1000 series NA130/00 Airfryer 1000-serie, 6,2 liter</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -5320,7 +5320,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 1000 series NA130/00 Airfryer 1000-serie, 6,2 liter</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -5342,7 +5342,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 1000 series NA130/00 Airfryer 1000-serie, 6,2 liter</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -5364,7 +5364,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 1000 series NA130/00 Airfryer 1000-serie, 6,2 liter</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -5386,7 +5386,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 1000 series NA130/00 Airfryer 1000-serie, 6,2 liter</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -5408,7 +5408,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 1000 series NA130/00 Airfryer 1000-serie, 6,2 liter</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -5430,7 +5430,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 1000 series NA130/00 Airfryer 1000-serie, 6,2 liter</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -5452,7 +5452,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 1000 series NA130/00 Airfryer 1000-serie, 6,2 liter</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -5474,7 +5474,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 1000 series NA130/00 Airfryer 1000-serie, 6,2 liter</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -5496,7 +5496,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 1000 series NA130/00 Airfryer 1000-serie, 6,2 liter</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -5518,7 +5518,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 1000 series NA130/00 Airfryer 1000-serie, 6,2 liter</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -5540,7 +5540,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 1000 series NA130/00 Airfryer 1000-serie, 6,2 liter</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -5562,7 +5562,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 1000 series NA130/00 Airfryer 1000-serie, 6,2 liter</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -5584,7 +5584,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 1000 series NA130/00 Airfryer 1000-serie, 6,2 liter</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -5606,7 +5606,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 1000 series NA130/00 Airfryer 1000-serie, 6,2 liter</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -5628,7 +5628,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 1000 series NA130/00 Airfryer 1000-serie, 6,2 liter</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -5650,7 +5650,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 1000 series NA130/00 Airfryer 1000-serie, 6,2 liter</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -5672,7 +5672,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 1000 series NA130/00 Airfryer 1000-serie, 6,2 liter</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -5694,7 +5694,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 1000 series NA130/00 Airfryer 1000-serie, 6,2 liter</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -5716,7 +5716,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 1000 series NA130/00 Airfryer 1000-serie, 6,2 liter</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -5738,7 +5738,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 1000 series NA130/00 Airfryer 1000-serie, 6,2 liter</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -5760,7 +5760,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 1000 series NA130/00 Airfryer 1000-serie, 6,2 liter</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -5782,7 +5782,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 1000 series NA130/00 Airfryer 1000-serie, 6,2 liter</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -5804,7 +5804,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 1000 series NA130/00 Airfryer 1000-serie, 6,2 liter</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -5826,7 +5826,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 1000 series NA130/00 Airfryer 1000-serie, 6,2 liter</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -5848,7 +5848,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 1000 series NA130/00 Airfryer 1000-serie, 6,2 liter</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -5870,7 +5870,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 1000 series NA130/00 Airfryer 1000-serie, 6,2 liter</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -5892,7 +5892,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 1000 series NA130/00 Airfryer 1000-serie, 6,2 liter</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -5914,7 +5914,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 1000 series NA130/00 Airfryer 1000-serie, 6,2 liter</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -5936,7 +5936,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 1000 series NA130/00 Airfryer 1000-serie, 6,2 liter</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -5958,7 +5958,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 1000 series NA130/00 Airfryer 1000-serie, 6,2 liter</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -5980,7 +5980,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 1000 series NA130/00 Airfryer 1000-serie, 6,2 liter</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -6002,7 +6002,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 1000 series NA130/00 Airfryer 1000-serie, 6,2 liter</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -6024,7 +6024,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 1000 series NA130/00 Airfryer 1000-serie, 6,2 liter</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -6046,7 +6046,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 1000 series NA130/00 Airfryer 1000-serie, 6,2 liter</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -6068,7 +6068,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 1000 series NA130/00 Airfryer 1000-serie, 6,2 liter</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -6090,7 +6090,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 1000 series NA130/00 Airfryer 1000-serie, 6,2 liter</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -6112,7 +6112,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 1000 series NA130/00 Airfryer 1000-serie, 6,2 liter</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -6134,7 +6134,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 1000 series NA130/00 Airfryer 1000-serie, 6,2 liter</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -6156,7 +6156,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 1000 series NA130/00 Airfryer 1000-serie, 6,2 liter</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -6178,7 +6178,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 1000 series NA130/00 Airfryer 1000-serie, 6,2 liter</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -6200,7 +6200,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 1000 series NA130/00 Airfryer 1000-serie, 6,2 liter</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -6222,7 +6222,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 1000 series NA130/00 Airfryer 1000-serie, 6,2 liter</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -6244,7 +6244,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 1000 series NA130/00 Airfryer 1000-serie, 6,2 liter</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -6266,7 +6266,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 1000 series NA130/00 Airfryer 1000-serie, 6,2 liter</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -6288,7 +6288,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 1000 series NA130/00 Airfryer 1000-serie, 6,2 liter</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -6310,7 +6310,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 1000 series NA130/00 Airfryer 1000-serie, 6,2 liter</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -6332,7 +6332,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 1000 series NA130/00 Airfryer 1000-serie, 6,2 liter</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -6354,7 +6354,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 1000 series NA130/00 Airfryer 1000-serie, 6,2 liter</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -6376,7 +6376,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 1000 series NA130/00 Airfryer 1000-serie, 6,2 liter</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -6398,7 +6398,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 1000 series NA130/00 Airfryer 1000-serie, 6,2 liter</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -6420,7 +6420,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 1000 series NA130/00 Airfryer 1000-serie, 6,2 liter</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -6442,7 +6442,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 1000 series NA130/00 Airfryer 1000-serie, 6,2 liter</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -6464,7 +6464,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 1000 series NA130/00 Airfryer 1000-serie, 6,2 liter</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -6486,7 +6486,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 1000 series NA130/00 Airfryer 1000-serie, 6,2 liter</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -6508,7 +6508,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 1000 series NA130/00 Airfryer 1000-serie, 6,2 liter</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -6530,7 +6530,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 1000 series NA130/00 Airfryer 1000-serie, 6,2 liter</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -6552,7 +6552,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 1000 series NA130/00 Airfryer 1000-serie, 6,2 liter</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -6574,7 +6574,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 1000 series NA130/00 Airfryer 1000-serie, 6,2 liter</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -6596,7 +6596,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 1000 series NA130/00 Airfryer 1000-serie, 6,2 liter</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -6618,7 +6618,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 1000 series NA130/00 Airfryer 1000-serie, 6,2 liter</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -6640,7 +6640,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 1000 series NA130/00 Airfryer 1000-serie, 6,2 liter</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -6662,7 +6662,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips OneUp Elektrische Dweil 5000 series XV5113/01 - Dweilsysteem - Vloerreiniger - Vuil water opzuigen - 2 standen - 70min dweilen - Geen emmer nodig</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -6684,7 +6684,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips OneUp Elektrische Dweil 5000 series XV5113/01 - Dweilsysteem - Vloerreiniger - Vuil water opzuigen - 2 standen - 70min dweilen - Geen emmer nodig</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -6706,7 +6706,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips OneUp Elektrische Dweil 5000 series XV5113/01 - Dweilsysteem - Vloerreiniger - Vuil water opzuigen - 2 standen - 70min dweilen - Geen emmer nodig</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -6728,7 +6728,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips OneUp Elektrische Dweil 5000 series XV5113/01 - Dweilsysteem - Vloerreiniger - Vuil water opzuigen - 2 standen - 70min dweilen - Geen emmer nodig</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -6750,7 +6750,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips OneUp Elektrische Dweil 5000 series XV5113/01 - Dweilsysteem - Vloerreiniger - Vuil water opzuigen - 2 standen - 70min dweilen - Geen emmer nodig</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -6772,7 +6772,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips OneUp Elektrische Dweil 5000 series XV5113/01 - Dweilsysteem - Vloerreiniger - Vuil water opzuigen - 2 standen - 70min dweilen - Geen emmer nodig</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -6794,7 +6794,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips OneUp Elektrische Dweil 5000 series XV5113/01 - Dweilsysteem - Vloerreiniger - Vuil water opzuigen - 2 standen - 70min dweilen - Geen emmer nodig</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -6816,7 +6816,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips OneUp Elektrische Dweil 5000 series XV5113/01 - Dweilsysteem - Vloerreiniger - Vuil water opzuigen - 2 standen - 70min dweilen - Geen emmer nodig</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -6838,7 +6838,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips OneUp Elektrische Dweil 5000 series XV5113/01 - Dweilsysteem - Vloerreiniger - Vuil water opzuigen - 2 standen - 70min dweilen - Geen emmer nodig</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -6860,7 +6860,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips OneUp Elektrische Dweil 5000 series XV5113/01 - Dweilsysteem - Vloerreiniger - Vuil water opzuigen - 2 standen - 70min dweilen - Geen emmer nodig</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -6882,7 +6882,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips OneUp Elektrische Dweil 5000 series XV5113/01 - Dweilsysteem - Vloerreiniger - Vuil water opzuigen - 2 standen - 70min dweilen - Geen emmer nodig</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -6904,7 +6904,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips OneUp Elektrische Dweil 5000 series XV5113/01 - Dweilsysteem - Vloerreiniger - Vuil water opzuigen - 2 standen - 70min dweilen - Geen emmer nodig</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -6926,7 +6926,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips OneUp Elektrische Dweil 5000 series XV5113/01 - Dweilsysteem - Vloerreiniger - Vuil water opzuigen - 2 standen - 70min dweilen - Geen emmer nodig</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -6948,7 +6948,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips OneUp Elektrische Dweil 5000 series XV5113/01 - Dweilsysteem - Vloerreiniger - Vuil water opzuigen - 2 standen - 70min dweilen - Geen emmer nodig</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -6970,7 +6970,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips OneUp Elektrische Dweil 5000 series XV5113/01 - Dweilsysteem - Vloerreiniger - Vuil water opzuigen - 2 standen - 70min dweilen - Geen emmer nodig</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -6992,7 +6992,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips OneUp Elektrische Dweil 5000 series XV5113/01 - Dweilsysteem - Vloerreiniger - Vuil water opzuigen - 2 standen - 70min dweilen - Geen emmer nodig</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -7014,7 +7014,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips OneUp Elektrische Dweil 5000 series XV5113/01 - Dweilsysteem - Vloerreiniger - Vuil water opzuigen - 2 standen - 70min dweilen - Geen emmer nodig</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -7036,7 +7036,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips OneUp Elektrische Dweil 5000 series XV5113/01 - Dweilsysteem - Vloerreiniger - Vuil water opzuigen - 2 standen - 70min dweilen - Geen emmer nodig</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -7058,7 +7058,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips OneUp Elektrische Dweil 5000 series XV5113/01 - Dweilsysteem - Vloerreiniger - Vuil water opzuigen - 2 standen - 70min dweilen - Geen emmer nodig</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -7080,7 +7080,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips OneUp Elektrische Dweil 5000 series XV5113/01 - Dweilsysteem - Vloerreiniger - Vuil water opzuigen - 2 standen - 70min dweilen - Geen emmer nodig</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -7102,7 +7102,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips OneUp Elektrische Dweil 5000 series XV5113/01 - Dweilsysteem - Vloerreiniger - Vuil water opzuigen - 2 standen - 70min dweilen - Geen emmer nodig</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
@@ -7124,7 +7124,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips OneUp Elektrische Dweil 5000 series XV5113/01 - Dweilsysteem - Vloerreiniger - Vuil water opzuigen - 2 standen - 70min dweilen - Geen emmer nodig</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -7146,7 +7146,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips OneUp Elektrische Dweil 5000 series XV5113/01 - Dweilsysteem - Vloerreiniger - Vuil water opzuigen - 2 standen - 70min dweilen - Geen emmer nodig</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -7168,7 +7168,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips OneUp Elektrische Dweil 5000 series XV5113/01 - Dweilsysteem - Vloerreiniger - Vuil water opzuigen - 2 standen - 70min dweilen - Geen emmer nodig</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -7190,7 +7190,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips OneUp Elektrische Dweil 5000 series XV5113/01 - Dweilsysteem - Vloerreiniger - Vuil water opzuigen - 2 standen - 70min dweilen - Geen emmer nodig</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -7212,7 +7212,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips OneUp Elektrische Dweil 5000 series XV5113/01 - Dweilsysteem - Vloerreiniger - Vuil water opzuigen - 2 standen - 70min dweilen - Geen emmer nodig</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -7234,7 +7234,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips OneUp Elektrische Dweil 5000 series XV5113/01 - Dweilsysteem - Vloerreiniger - Vuil water opzuigen - 2 standen - 70min dweilen - Geen emmer nodig</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -7256,7 +7256,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips OneUp Elektrische Dweil 5000 series XV5113/01 - Dweilsysteem - Vloerreiniger - Vuil water opzuigen - 2 standen - 70min dweilen - Geen emmer nodig</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -7278,7 +7278,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips OneUp Elektrische Dweil 5000 series XV5113/01 - Dweilsysteem - Vloerreiniger - Vuil water opzuigen - 2 standen - 70min dweilen - Geen emmer nodig</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -7300,7 +7300,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips OneUp Elektrische Dweil 5000 series XV5113/01 - Dweilsysteem - Vloerreiniger - Vuil water opzuigen - 2 standen - 70min dweilen - Geen emmer nodig</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -7322,7 +7322,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips OneUp Elektrische Dweil 5000 series XV5113/01 - Dweilsysteem - Vloerreiniger - Vuil water opzuigen - 2 standen - 70min dweilen - Geen emmer nodig</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -7344,7 +7344,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips OneUp Elektrische Dweil 5000 series XV5113/01 - Dweilsysteem - Vloerreiniger - Vuil water opzuigen - 2 standen - 70min dweilen - Geen emmer nodig</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -7366,7 +7366,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips OneUp Elektrische Dweil 5000 series XV5113/01 - Dweilsysteem - Vloerreiniger - Vuil water opzuigen - 2 standen - 70min dweilen - Geen emmer nodig</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -7388,7 +7388,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips OneUp Elektrische Dweil 5000 series XV5113/01 - Dweilsysteem - Vloerreiniger - Vuil water opzuigen - 2 standen - 70min dweilen - Geen emmer nodig</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -7410,7 +7410,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips OneUp Elektrische Dweil 5000 series XV5113/01 - Dweilsysteem - Vloerreiniger - Vuil water opzuigen - 2 standen - 70min dweilen - Geen emmer nodig</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
@@ -7432,7 +7432,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips OneUp Elektrische Dweil 5000 series XV5113/01 - Dweilsysteem - Vloerreiniger - Vuil water opzuigen - 2 standen - 70min dweilen - Geen emmer nodig</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
@@ -7454,7 +7454,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips OneUp Elektrische Dweil 5000 series XV5113/01 - Dweilsysteem - Vloerreiniger - Vuil water opzuigen - 2 standen - 70min dweilen - Geen emmer nodig</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -7476,7 +7476,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips OneUp Elektrische Dweil 5000 series XV5113/01 - Dweilsysteem - Vloerreiniger - Vuil water opzuigen - 2 standen - 70min dweilen - Geen emmer nodig</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -7498,7 +7498,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips OneUp Elektrische Dweil 5000 series XV5113/01 - Dweilsysteem - Vloerreiniger - Vuil water opzuigen - 2 standen - 70min dweilen - Geen emmer nodig</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -7520,7 +7520,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips OneUp Elektrische Dweil 5000 series XV5113/01 - Dweilsysteem - Vloerreiniger - Vuil water opzuigen - 2 standen - 70min dweilen - Geen emmer nodig</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -7542,7 +7542,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips OneUp Elektrische Dweil 5000 series XV5113/01 - Dweilsysteem - Vloerreiniger - Vuil water opzuigen - 2 standen - 70min dweilen - Geen emmer nodig</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -7564,7 +7564,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips OneUp Elektrische Dweil 5000 series XV5113/01 - Dweilsysteem - Vloerreiniger - Vuil water opzuigen - 2 standen - 70min dweilen - Geen emmer nodig</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -7586,7 +7586,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips OneUp Elektrische Dweil 5000 series XV5113/01 - Dweilsysteem - Vloerreiniger - Vuil water opzuigen - 2 standen - 70min dweilen - Geen emmer nodig</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
@@ -7608,7 +7608,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips OneUp Elektrische Dweil 5000 series XV5113/01 - Dweilsysteem - Vloerreiniger - Vuil water opzuigen - 2 standen - 70min dweilen - Geen emmer nodig</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
@@ -7630,7 +7630,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips OneUp Elektrische Dweil 5000 series XV5113/01 - Dweilsysteem - Vloerreiniger - Vuil water opzuigen - 2 standen - 70min dweilen - Geen emmer nodig</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
@@ -7652,7 +7652,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips OneUp Elektrische Dweil 5000 series XV5113/01 - Dweilsysteem - Vloerreiniger - Vuil water opzuigen - 2 standen - 70min dweilen - Geen emmer nodig</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -7674,7 +7674,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips OneUp Elektrische Dweil 5000 series XV5113/01 - Dweilsysteem - Vloerreiniger - Vuil water opzuigen - 2 standen - 70min dweilen - Geen emmer nodig</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -7696,7 +7696,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips OneUp Elektrische Dweil 5000 series XV5113/01 - Dweilsysteem - Vloerreiniger - Vuil water opzuigen - 2 standen - 70min dweilen - Geen emmer nodig</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -7718,7 +7718,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Stofzuiger zonder Zak FC9331/09 - Alle Vloertypen - Sterke Zuigkracht - Met H13 Allergiefilter - Met Extra Mondstuk - Blauw</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -7740,7 +7740,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Stofzuiger zonder Zak FC9331/09 - Alle Vloertypen - Sterke Zuigkracht - Met H13 Allergiefilter - Met Extra Mondstuk - Blauw</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -7762,7 +7762,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Stofzuiger zonder Zak FC9331/09 - Alle Vloertypen - Sterke Zuigkracht - Met H13 Allergiefilter - Met Extra Mondstuk - Blauw</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -7784,7 +7784,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Stofzuiger zonder Zak FC9331/09 - Alle Vloertypen - Sterke Zuigkracht - Met H13 Allergiefilter - Met Extra Mondstuk - Blauw</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -7806,7 +7806,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Stofzuiger zonder Zak FC9331/09 - Alle Vloertypen - Sterke Zuigkracht - Met H13 Allergiefilter - Met Extra Mondstuk - Blauw</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -7828,7 +7828,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Stofzuiger zonder Zak FC9331/09 - Alle Vloertypen - Sterke Zuigkracht - Met H13 Allergiefilter - Met Extra Mondstuk - Blauw</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -7850,7 +7850,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Stofzuiger zonder Zak FC9331/09 - Alle Vloertypen - Sterke Zuigkracht - Met H13 Allergiefilter - Met Extra Mondstuk - Blauw</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -7872,7 +7872,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Stofzuiger zonder Zak FC9331/09 - Alle Vloertypen - Sterke Zuigkracht - Met H13 Allergiefilter - Met Extra Mondstuk - Blauw</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -7894,7 +7894,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Stofzuiger zonder Zak FC9331/09 - Alle Vloertypen - Sterke Zuigkracht - Met H13 Allergiefilter - Met Extra Mondstuk - Blauw</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -7916,7 +7916,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Stofzuiger zonder Zak FC9331/09 - Alle Vloertypen - Sterke Zuigkracht - Met H13 Allergiefilter - Met Extra Mondstuk - Blauw</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
@@ -7938,7 +7938,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Stofzuiger zonder Zak FC9331/09 - Alle Vloertypen - Sterke Zuigkracht - Met H13 Allergiefilter - Met Extra Mondstuk - Blauw</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -7960,7 +7960,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Stofzuiger zonder Zak FC9331/09 - Alle Vloertypen - Sterke Zuigkracht - Met H13 Allergiefilter - Met Extra Mondstuk - Blauw</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -7982,7 +7982,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Stofzuiger zonder Zak FC9331/09 - Alle Vloertypen - Sterke Zuigkracht - Met H13 Allergiefilter - Met Extra Mondstuk - Blauw</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -8004,7 +8004,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Stofzuiger zonder Zak FC9331/09 - Alle Vloertypen - Sterke Zuigkracht - Met H13 Allergiefilter - Met Extra Mondstuk - Blauw</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -8026,7 +8026,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Stofzuiger zonder Zak FC9331/09 - Alle Vloertypen - Sterke Zuigkracht - Met H13 Allergiefilter - Met Extra Mondstuk - Blauw</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
@@ -8048,7 +8048,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Stofzuiger zonder Zak FC9331/09 - Alle Vloertypen - Sterke Zuigkracht - Met H13 Allergiefilter - Met Extra Mondstuk - Blauw</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
@@ -8070,7 +8070,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Stofzuiger zonder Zak FC9331/09 - Alle Vloertypen - Sterke Zuigkracht - Met H13 Allergiefilter - Met Extra Mondstuk - Blauw</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
@@ -8092,7 +8092,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Stofzuiger zonder Zak FC9331/09 - Alle Vloertypen - Sterke Zuigkracht - Met H13 Allergiefilter - Met Extra Mondstuk - Blauw</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
@@ -8114,7 +8114,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Stofzuiger zonder Zak FC9331/09 - Alle Vloertypen - Sterke Zuigkracht - Met H13 Allergiefilter - Met Extra Mondstuk - Blauw</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -8136,7 +8136,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Stofzuiger zonder Zak FC9331/09 - Alle Vloertypen - Sterke Zuigkracht - Met H13 Allergiefilter - Met Extra Mondstuk - Blauw</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -8158,7 +8158,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Stofzuiger zonder Zak FC9331/09 - Alle Vloertypen - Sterke Zuigkracht - Met H13 Allergiefilter - Met Extra Mondstuk - Blauw</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
@@ -8180,7 +8180,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Stofzuiger zonder Zak FC9331/09 - Alle Vloertypen - Sterke Zuigkracht - Met H13 Allergiefilter - Met Extra Mondstuk - Blauw</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
@@ -8202,7 +8202,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Stofzuiger zonder Zak FC9331/09 - Alle Vloertypen - Sterke Zuigkracht - Met H13 Allergiefilter - Met Extra Mondstuk - Blauw</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
@@ -8224,7 +8224,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Stofzuiger zonder Zak FC9331/09 - Alle Vloertypen - Sterke Zuigkracht - Met H13 Allergiefilter - Met Extra Mondstuk - Blauw</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
@@ -8246,7 +8246,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Stofzuiger zonder Zak FC9331/09 - Alle Vloertypen - Sterke Zuigkracht - Met H13 Allergiefilter - Met Extra Mondstuk - Blauw</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
@@ -8268,7 +8268,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Stofzuiger zonder Zak FC9331/09 - Alle Vloertypen - Sterke Zuigkracht - Met H13 Allergiefilter - Met Extra Mondstuk - Blauw</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -8290,7 +8290,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Stofzuiger zonder Zak FC9331/09 - Alle Vloertypen - Sterke Zuigkracht - Met H13 Allergiefilter - Met Extra Mondstuk - Blauw</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
@@ -8312,7 +8312,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Stofzuiger zonder Zak FC9331/09 - Alle Vloertypen - Sterke Zuigkracht - Met H13 Allergiefilter - Met Extra Mondstuk - Blauw</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
@@ -8334,7 +8334,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Stofzuiger zonder Zak FC9331/09 - Alle Vloertypen - Sterke Zuigkracht - Met H13 Allergiefilter - Met Extra Mondstuk - Blauw</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
@@ -8356,7 +8356,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Stofzuiger zonder Zak FC9331/09 - Alle Vloertypen - Sterke Zuigkracht - Met H13 Allergiefilter - Met Extra Mondstuk - Blauw</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
@@ -8378,7 +8378,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Stofzuiger zonder Zak FC9331/09 - Alle Vloertypen - Sterke Zuigkracht - Met H13 Allergiefilter - Met Extra Mondstuk - Blauw</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
@@ -8400,7 +8400,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Stofzuiger zonder Zak FC9331/09 - Alle Vloertypen - Sterke Zuigkracht - Met H13 Allergiefilter - Met Extra Mondstuk - Blauw</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
@@ -8422,7 +8422,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Stofzuiger zonder Zak FC9331/09 - Alle Vloertypen - Sterke Zuigkracht - Met H13 Allergiefilter - Met Extra Mondstuk - Blauw</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
@@ -8444,7 +8444,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Stofzuiger zonder Zak FC9331/09 - Alle Vloertypen - Sterke Zuigkracht - Met H13 Allergiefilter - Met Extra Mondstuk - Blauw</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
@@ -8466,7 +8466,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Stofzuiger zonder Zak FC9331/09 - Alle Vloertypen - Sterke Zuigkracht - Met H13 Allergiefilter - Met Extra Mondstuk - Blauw</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
@@ -8488,7 +8488,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Stofzuiger zonder Zak FC9331/09 - Alle Vloertypen - Sterke Zuigkracht - Met H13 Allergiefilter - Met Extra Mondstuk - Blauw</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
@@ -8510,7 +8510,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Stofzuiger zonder Zak FC9331/09 - Alle Vloertypen - Sterke Zuigkracht - Met H13 Allergiefilter - Met Extra Mondstuk - Blauw</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
@@ -8532,7 +8532,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Stofzuiger zonder Zak FC9331/09 - Alle Vloertypen - Sterke Zuigkracht - Met H13 Allergiefilter - Met Extra Mondstuk - Blauw</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
@@ -8554,7 +8554,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Stofzuiger zonder Zak FC9331/09 - Alle Vloertypen - Sterke Zuigkracht - Met H13 Allergiefilter - Met Extra Mondstuk - Blauw</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
@@ -8576,7 +8576,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Stofzuiger zonder Zak FC9331/09 - Alle Vloertypen - Sterke Zuigkracht - Met H13 Allergiefilter - Met Extra Mondstuk - Blauw</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
@@ -8598,7 +8598,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Stofzuiger zonder Zak FC9331/09 - Alle Vloertypen - Sterke Zuigkracht - Met H13 Allergiefilter - Met Extra Mondstuk - Blauw</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
@@ -8620,7 +8620,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Stofzuiger zonder Zak FC9331/09 - Alle Vloertypen - Sterke Zuigkracht - Met H13 Allergiefilter - Met Extra Mondstuk - Blauw</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
@@ -8642,7 +8642,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Stofzuiger zonder Zak FC9331/09 - Alle Vloertypen - Sterke Zuigkracht - Met H13 Allergiefilter - Met Extra Mondstuk - Blauw</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
@@ -8664,7 +8664,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Stofzuiger zonder Zak FC9331/09 - Alle Vloertypen - Sterke Zuigkracht - Met H13 Allergiefilter - Met Extra Mondstuk - Blauw</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
@@ -8686,7 +8686,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Stofzuiger zonder Zak FC9331/09 - Alle Vloertypen - Sterke Zuigkracht - Met H13 Allergiefilter - Met Extra Mondstuk - Blauw</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
@@ -8708,7 +8708,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Stofzuiger zonder Zak FC9331/09 - Alle Vloertypen - Sterke Zuigkracht - Met H13 Allergiefilter - Met Extra Mondstuk - Blauw</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
@@ -8730,7 +8730,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Stofzuiger zonder Zak FC9331/09 - Alle Vloertypen - Sterke Zuigkracht - Met H13 Allergiefilter - Met Extra Mondstuk - Blauw</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
@@ -8752,7 +8752,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Stofzuiger zonder Zak FC9331/09 - Alle Vloertypen - Sterke Zuigkracht - Met H13 Allergiefilter - Met Extra Mondstuk - Blauw</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
@@ -8774,7 +8774,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 3000 series STH3000/20 - Kledingstomer - Donkerblauw</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
@@ -8796,7 +8796,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 3000 series STH3000/20 - Kledingstomer - Donkerblauw</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
@@ -8818,7 +8818,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 3000 series STH3000/20 - Kledingstomer - Donkerblauw</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
@@ -8840,7 +8840,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 3000 series STH3000/20 - Kledingstomer - Donkerblauw</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
@@ -8862,7 +8862,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 3000 series STH3000/20 - Kledingstomer - Donkerblauw</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
@@ -8884,7 +8884,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 3000 series STH3000/20 - Kledingstomer - Donkerblauw</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
@@ -8906,7 +8906,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 3000 series STH3000/20 - Kledingstomer - Donkerblauw</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
@@ -8928,7 +8928,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 3000 series STH3000/20 - Kledingstomer - Donkerblauw</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
@@ -8950,7 +8950,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 3000 series STH3000/20 - Kledingstomer - Donkerblauw</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
@@ -8972,7 +8972,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 3000 series STH3000/20 - Kledingstomer - Donkerblauw</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
@@ -8994,7 +8994,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 3000 series STH3000/20 - Kledingstomer - Donkerblauw</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
@@ -9016,7 +9016,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 3000 series STH3000/20 - Kledingstomer - Donkerblauw</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
@@ -9038,7 +9038,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 3000 series STH3000/20 - Kledingstomer - Donkerblauw</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
@@ -9060,7 +9060,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 3000 series STH3000/20 - Kledingstomer - Donkerblauw</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
@@ -9082,7 +9082,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 3000 series STH3000/20 - Kledingstomer - Donkerblauw</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
@@ -9104,7 +9104,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 3000 series STH3000/20 - Kledingstomer - Donkerblauw</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
@@ -9126,7 +9126,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 3000 series STH3000/20 - Kledingstomer - Donkerblauw</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
@@ -9148,7 +9148,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 3000 series STH3000/20 - Kledingstomer - Donkerblauw</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
@@ -9170,7 +9170,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 3000 series STH3000/20 - Kledingstomer - Donkerblauw</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
@@ -9192,7 +9192,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 3000 series STH3000/20 - Kledingstomer - Donkerblauw</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
@@ -9214,7 +9214,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 3000 series STH3000/20 - Kledingstomer - Donkerblauw</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
@@ -9236,7 +9236,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 3000 series STH3000/20 - Kledingstomer - Donkerblauw</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
@@ -9258,7 +9258,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 3000 series STH3000/20 - Kledingstomer - Donkerblauw</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
@@ -9280,7 +9280,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 3000 series STH3000/20 - Kledingstomer - Donkerblauw</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
@@ -9302,7 +9302,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 3000 series STH3000/20 - Kledingstomer - Donkerblauw</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
@@ -9324,7 +9324,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 3000 series STH3000/20 - Kledingstomer - Donkerblauw</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
@@ -9346,7 +9346,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 3000 series STH3000/20 - Kledingstomer - Donkerblauw</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
@@ -9368,7 +9368,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 3000 series STH3000/20 - Kledingstomer - Donkerblauw</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
@@ -9390,7 +9390,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 3000 series STH3000/20 - Kledingstomer - Donkerblauw</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
@@ -9412,7 +9412,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 3000 series STH3000/20 - Kledingstomer - Donkerblauw</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
@@ -9434,7 +9434,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 3000 series STH3000/20 - Kledingstomer - Donkerblauw</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
@@ -9456,7 +9456,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 3000 series STH3000/20 - Kledingstomer - Donkerblauw</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
@@ -9478,7 +9478,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 3000 series STH3000/20 - Kledingstomer - Donkerblauw</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
@@ -9500,7 +9500,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 3000 series STH3000/20 - Kledingstomer - Donkerblauw</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
@@ -9522,7 +9522,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 3000 series STH3000/20 - Kledingstomer - Donkerblauw</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
@@ -9544,7 +9544,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 3000 series STH3000/20 - Kledingstomer - Donkerblauw</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
@@ -9566,7 +9566,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 3000 series STH3000/20 - Kledingstomer - Donkerblauw</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
@@ -9588,7 +9588,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 3000 series STH3000/20 - Kledingstomer - Donkerblauw</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
@@ -9610,7 +9610,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 3000 series STH3000/20 - Kledingstomer - Donkerblauw</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
@@ -9632,7 +9632,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips L'OR Barista Sublime Koffiezetapparaat LM9012/20 - Geschikt voor Capsules - Koffiecupmachine Inclusief 9 Espresso en Barista Capsules - Grijs</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
@@ -9654,7 +9654,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips L'OR Barista Sublime Koffiezetapparaat LM9012/20 - Geschikt voor Capsules - Koffiecupmachine Inclusief 9 Espresso en Barista Capsules - Grijs</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
@@ -9676,7 +9676,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips L'OR Barista Sublime Koffiezetapparaat LM9012/20 - Geschikt voor Capsules - Koffiecupmachine Inclusief 9 Espresso en Barista Capsules - Grijs</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
@@ -9698,7 +9698,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips L'OR Barista Sublime Koffiezetapparaat LM9012/20 - Geschikt voor Capsules - Koffiecupmachine Inclusief 9 Espresso en Barista Capsules - Grijs</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
@@ -9720,7 +9720,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips L'OR Barista Sublime Koffiezetapparaat LM9012/20 - Geschikt voor Capsules - Koffiecupmachine Inclusief 9 Espresso en Barista Capsules - Grijs</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
@@ -9742,7 +9742,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips L'OR Barista Sublime Koffiezetapparaat LM9012/20 - Geschikt voor Capsules - Koffiecupmachine Inclusief 9 Espresso en Barista Capsules - Grijs</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
@@ -9764,7 +9764,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips L'OR Barista Sublime Koffiezetapparaat LM9012/20 - Geschikt voor Capsules - Koffiecupmachine Inclusief 9 Espresso en Barista Capsules - Grijs</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
@@ -9786,7 +9786,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips L'OR Barista Sublime Koffiezetapparaat LM9012/20 - Geschikt voor Capsules - Koffiecupmachine Inclusief 9 Espresso en Barista Capsules - Grijs</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
@@ -9808,7 +9808,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips L'OR Barista Sublime Koffiezetapparaat LM9012/20 - Geschikt voor Capsules - Koffiecupmachine Inclusief 9 Espresso en Barista Capsules - Grijs</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
@@ -9830,7 +9830,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips L'OR Barista Sublime Koffiezetapparaat LM9012/20 - Geschikt voor Capsules - Koffiecupmachine Inclusief 9 Espresso en Barista Capsules - Grijs</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
@@ -9852,7 +9852,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips L'OR Barista Sublime Koffiezetapparaat LM9012/20 - Geschikt voor Capsules - Koffiecupmachine Inclusief 9 Espresso en Barista Capsules - Grijs</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
@@ -9874,7 +9874,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips L'OR Barista Sublime Koffiezetapparaat LM9012/20 - Geschikt voor Capsules - Koffiecupmachine Inclusief 9 Espresso en Barista Capsules - Grijs</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
@@ -9896,7 +9896,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips L'OR Barista Sublime Koffiezetapparaat LM9012/20 - Geschikt voor Capsules - Koffiecupmachine Inclusief 9 Espresso en Barista Capsules - Grijs</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
@@ -9918,7 +9918,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips L'OR Barista Sublime Koffiezetapparaat LM9012/20 - Geschikt voor Capsules - Koffiecupmachine Inclusief 9 Espresso en Barista Capsules - Grijs</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
@@ -9940,7 +9940,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips L'OR Barista Sublime Koffiezetapparaat LM9012/20 - Geschikt voor Capsules - Koffiecupmachine Inclusief 9 Espresso en Barista Capsules - Grijs</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
@@ -9962,7 +9962,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips L'OR Barista Sublime Koffiezetapparaat LM9012/20 - Geschikt voor Capsules - Koffiecupmachine Inclusief 9 Espresso en Barista Capsules - Grijs</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
@@ -9984,7 +9984,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips L'OR Barista Sublime Koffiezetapparaat LM9012/20 - Geschikt voor Capsules - Koffiecupmachine Inclusief 9 Espresso en Barista Capsules - Grijs</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
@@ -10006,7 +10006,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips L'OR Barista Sublime Koffiezetapparaat LM9012/20 - Geschikt voor Capsules - Koffiecupmachine Inclusief 9 Espresso en Barista Capsules - Grijs</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
@@ -10028,7 +10028,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips L'OR Barista Sublime Koffiezetapparaat LM9012/20 - Geschikt voor Capsules - Koffiecupmachine Inclusief 9 Espresso en Barista Capsules - Grijs</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
@@ -10050,7 +10050,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips L'OR Barista Sublime Koffiezetapparaat LM9012/20 - Geschikt voor Capsules - Koffiecupmachine Inclusief 9 Espresso en Barista Capsules - Grijs</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
@@ -10072,7 +10072,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips L'OR Barista Sublime Koffiezetapparaat LM9012/20 - Geschikt voor Capsules - Koffiecupmachine Inclusief 9 Espresso en Barista Capsules - Grijs</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
@@ -10094,7 +10094,7 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips L'OR Barista Sublime Koffiezetapparaat LM9012/20 - Geschikt voor Capsules - Koffiecupmachine Inclusief 9 Espresso en Barista Capsules - Grijs</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
@@ -10116,7 +10116,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips L'OR Barista Sublime Koffiezetapparaat LM9012/20 - Geschikt voor Capsules - Koffiecupmachine Inclusief 9 Espresso en Barista Capsules - Grijs</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
@@ -10138,7 +10138,7 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips L'OR Barista Sublime Koffiezetapparaat LM9012/20 - Geschikt voor Capsules - Koffiecupmachine Inclusief 9 Espresso en Barista Capsules - Grijs</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
@@ -10160,7 +10160,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips L'OR Barista Sublime Koffiezetapparaat LM9012/20 - Geschikt voor Capsules - Koffiecupmachine Inclusief 9 Espresso en Barista Capsules - Grijs</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
@@ -10182,7 +10182,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips L'OR Barista Sublime Koffiezetapparaat LM9012/20 - Geschikt voor Capsules - Koffiecupmachine Inclusief 9 Espresso en Barista Capsules - Grijs</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
@@ -10204,7 +10204,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips L'OR Barista Sublime Koffiezetapparaat LM9012/20 - Geschikt voor Capsules - Koffiecupmachine Inclusief 9 Espresso en Barista Capsules - Grijs</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
@@ -10226,7 +10226,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips L'OR Barista Sublime Koffiezetapparaat LM9012/20 - Geschikt voor Capsules - Koffiecupmachine Inclusief 9 Espresso en Barista Capsules - Grijs</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
@@ -10248,7 +10248,7 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips L'OR Barista Sublime Koffiezetapparaat LM9012/20 - Geschikt voor Capsules - Koffiecupmachine Inclusief 9 Espresso en Barista Capsules - Grijs</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
@@ -10270,7 +10270,7 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips L'OR Barista Sublime Koffiezetapparaat LM9012/20 - Geschikt voor Capsules - Koffiecupmachine Inclusief 9 Espresso en Barista Capsules - Grijs</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
@@ -10292,7 +10292,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips L'OR Barista Sublime Koffiezetapparaat LM9012/20 - Geschikt voor Capsules - Koffiecupmachine Inclusief 9 Espresso en Barista Capsules - Grijs</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
@@ -10314,7 +10314,7 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips L'OR Barista Sublime Koffiezetapparaat LM9012/20 - Geschikt voor Capsules - Koffiecupmachine Inclusief 9 Espresso en Barista Capsules - Grijs</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
@@ -10336,7 +10336,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips L'OR Barista Sublime Koffiezetapparaat LM9012/20 - Geschikt voor Capsules - Koffiecupmachine Inclusief 9 Espresso en Barista Capsules - Grijs</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
@@ -10358,7 +10358,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips L'OR Barista Sublime Koffiezetapparaat LM9012/20 - Geschikt voor Capsules - Koffiecupmachine Inclusief 9 Espresso en Barista Capsules - Grijs</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
@@ -10380,7 +10380,7 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips L'OR Barista Sublime Koffiezetapparaat LM9012/20 - Geschikt voor Capsules - Koffiecupmachine Inclusief 9 Espresso en Barista Capsules - Grijs</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
@@ -10402,7 +10402,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips L'OR Barista Sublime Koffiezetapparaat LM9012/20 - Geschikt voor Capsules - Koffiecupmachine Inclusief 9 Espresso en Barista Capsules - Grijs</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
@@ -10424,7 +10424,7 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips L'OR Barista Sublime Koffiezetapparaat LM9012/20 - Geschikt voor Capsules - Koffiecupmachine Inclusief 9 Espresso en Barista Capsules - Grijs</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
@@ -10446,7 +10446,7 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips L'OR Barista Sublime Koffiezetapparaat LM9012/20 - Geschikt voor Capsules - Koffiecupmachine Inclusief 9 Espresso en Barista Capsules - Grijs</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
@@ -10468,7 +10468,7 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips L'OR Barista Sublime Koffiezetapparaat LM9012/20 - Geschikt voor Capsules - Koffiecupmachine Inclusief 9 Espresso en Barista Capsules - Grijs</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
@@ -10490,7 +10490,7 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips L'OR Barista Sublime Koffiezetapparaat LM9012/20 - Geschikt voor Capsules - Koffiecupmachine Inclusief 9 Espresso en Barista Capsules - Grijs</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
@@ -10512,7 +10512,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips L'OR Barista Sublime Koffiezetapparaat LM9012/20 - Geschikt voor Capsules - Koffiecupmachine Inclusief 9 Espresso en Barista Capsules - Grijs</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
@@ -10534,7 +10534,7 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips L'OR Barista Sublime Koffiezetapparaat LM9012/20 - Geschikt voor Capsules - Koffiecupmachine Inclusief 9 Espresso en Barista Capsules - Grijs</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
@@ -10556,7 +10556,7 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips L'OR Barista Sublime Koffiezetapparaat LM9012/20 - Geschikt voor Capsules - Koffiecupmachine Inclusief 9 Espresso en Barista Capsules - Grijs</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
@@ -10578,7 +10578,7 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips L'OR Barista Sublime Koffiezetapparaat LM9012/20 - Geschikt voor Capsules - Koffiecupmachine Inclusief 9 Espresso en Barista Capsules - Grijs</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
@@ -10600,7 +10600,7 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips L'OR Barista Sublime Koffiezetapparaat LM9012/20 - Geschikt voor Capsules - Koffiecupmachine Inclusief 9 Espresso en Barista Capsules - Grijs</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
@@ -10622,7 +10622,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips L'OR Barista Sublime Koffiezetapparaat LM9012/20 - Geschikt voor Capsules - Koffiecupmachine Inclusief 9 Espresso en Barista Capsules - Grijs</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
@@ -10644,7 +10644,7 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips L'OR Barista Sublime Koffiezetapparaat LM9012/20 - Geschikt voor Capsules - Koffiecupmachine Inclusief 9 Espresso en Barista Capsules - Grijs</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
@@ -10666,7 +10666,7 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips L'OR Barista Sublime Koffiezetapparaat LM9012/20 - Geschikt voor Capsules - Koffiecupmachine Inclusief 9 Espresso en Barista Capsules - Grijs</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
@@ -10688,7 +10688,7 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips L'OR Barista Sublime Koffiezetapparaat LM9012/20 - Geschikt voor Capsules - Koffiecupmachine Inclusief 9 Espresso en Barista Capsules - Grijs</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
@@ -10710,7 +10710,7 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips L'OR Barista Sublime Koffiezetapparaat LM9012/20 - Geschikt voor Capsules - Koffiecupmachine Inclusief 9 Espresso en Barista Capsules - Grijs</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
@@ -10732,7 +10732,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips L'OR Barista Sublime Koffiezetapparaat LM9012/20 - Geschikt voor Capsules - Koffiecupmachine Inclusief 9 Espresso en Barista Capsules - Grijs</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
@@ -10754,7 +10754,7 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips L'OR Barista Sublime Koffiezetapparaat LM9012/20 - Geschikt voor Capsules - Koffiecupmachine Inclusief 9 Espresso en Barista Capsules - Grijs</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
@@ -10776,7 +10776,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips L'OR Barista Sublime Koffiezetapparaat LM9012/20 - Geschikt voor Capsules - Koffiecupmachine Inclusief 9 Espresso en Barista Capsules - Grijs</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
@@ -10798,7 +10798,7 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips L'OR Barista Sublime Koffiezetapparaat LM9012/20 - Geschikt voor Capsules - Koffiecupmachine Inclusief 9 Espresso en Barista Capsules - Grijs</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
@@ -10820,7 +10820,7 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips L'OR Barista Sublime Koffiezetapparaat LM9012/20 - Geschikt voor Capsules - Koffiecupmachine Inclusief 9 Espresso en Barista Capsules - Grijs</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
@@ -10842,7 +10842,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips L'OR Barista Sublime Koffiezetapparaat LM9012/20 - Geschikt voor Capsules - Koffiecupmachine Inclusief 9 Espresso en Barista Capsules - Grijs</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
@@ -10864,7 +10864,7 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips L'OR Barista Sublime Koffiezetapparaat LM9012/20 - Geschikt voor Capsules - Koffiecupmachine Inclusief 9 Espresso en Barista Capsules - Grijs</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
@@ -10886,7 +10886,7 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips L'OR Barista Sublime Koffiezetapparaat LM9012/20 - Geschikt voor Capsules - Koffiecupmachine Inclusief 9 Espresso en Barista Capsules - Grijs</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
@@ -10908,7 +10908,7 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips L'OR Barista Sublime Koffiezetapparaat LM9012/20 - Geschikt voor Capsules - Koffiecupmachine Inclusief 9 Espresso en Barista Capsules - Grijs</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
@@ -10930,7 +10930,7 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips L'OR Barista Sublime Koffiezetapparaat LM9012/20 - Geschikt voor Capsules - Koffiecupmachine Inclusief 9 Espresso en Barista Capsules - Grijs</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
@@ -10952,7 +10952,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips L'OR Barista Sublime Koffiezetapparaat LM9012/20 - Geschikt voor Capsules - Koffiecupmachine Inclusief 9 Espresso en Barista Capsules - Grijs</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
@@ -10974,7 +10974,7 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips L'OR Barista Sublime Koffiezetapparaat LM9012/20 - Geschikt voor Capsules - Koffiecupmachine Inclusief 9 Espresso en Barista Capsules - Grijs</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
@@ -10996,7 +10996,7 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips L'OR Barista Sublime Koffiezetapparaat LM9012/20 - Geschikt voor Capsules - Koffiecupmachine Inclusief 9 Espresso en Barista Capsules - Grijs</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
@@ -11018,7 +11018,7 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips L'OR Barista Sublime Koffiezetapparaat LM9012/20 - Geschikt voor Capsules - Koffiecupmachine Inclusief 9 Espresso en Barista Capsules - Grijs</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
@@ -11040,7 +11040,7 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips L'OR Barista Sublime Koffiezetapparaat LM9012/20 - Geschikt voor Capsules - Koffiecupmachine Inclusief 9 Espresso en Barista Capsules - Grijs</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
@@ -11062,7 +11062,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips L'OR Barista Sublime Koffiezetapparaat LM9012/20 - Geschikt voor Capsules - Koffiecupmachine Inclusief 9 Espresso en Barista Capsules - Grijs</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
@@ -11084,7 +11084,7 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips L'OR Barista Sublime Koffiezetapparaat LM9012/20 - Geschikt voor Capsules - Koffiecupmachine Inclusief 9 Espresso en Barista Capsules - Grijs</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
@@ -11106,7 +11106,7 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips L'OR Barista Sublime Koffiezetapparaat LM9012/20 - Geschikt voor Capsules - Koffiecupmachine Inclusief 9 Espresso en Barista Capsules - Grijs</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
@@ -11128,7 +11128,7 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2200 Series EP2220/10 - Espressomachine - 2 Soorten Koffie + Heet Water - Zwart / Matzwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
@@ -11150,7 +11150,7 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2200 Series EP2220/10 - Espressomachine - 2 Soorten Koffie + Heet Water - Zwart / Matzwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
@@ -11172,7 +11172,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2200 Series EP2220/10 - Espressomachine - 2 Soorten Koffie + Heet Water - Zwart / Matzwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
@@ -11194,7 +11194,7 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2200 Series EP2220/10 - Espressomachine - 2 Soorten Koffie + Heet Water - Zwart / Matzwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
@@ -11216,7 +11216,7 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2200 Series EP2220/10 - Espressomachine - 2 Soorten Koffie + Heet Water - Zwart / Matzwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
@@ -11238,7 +11238,7 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2200 Series EP2220/10 - Espressomachine - 2 Soorten Koffie + Heet Water - Zwart / Matzwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
@@ -11260,7 +11260,7 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2200 Series EP2220/10 - Espressomachine - 2 Soorten Koffie + Heet Water - Zwart / Matzwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
@@ -11282,7 +11282,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2200 Series EP2220/10 - Espressomachine - 2 Soorten Koffie + Heet Water - Zwart / Matzwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
@@ -11304,7 +11304,7 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2200 Series EP2220/10 - Espressomachine - 2 Soorten Koffie + Heet Water - Zwart / Matzwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
@@ -11326,7 +11326,7 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2200 Series EP2220/10 - Espressomachine - 2 Soorten Koffie + Heet Water - Zwart / Matzwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
@@ -11348,7 +11348,7 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2200 Series EP2220/10 - Espressomachine - 2 Soorten Koffie + Heet Water - Zwart / Matzwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
@@ -11370,7 +11370,7 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2200 Series EP2220/10 - Espressomachine - 2 Soorten Koffie + Heet Water - Zwart / Matzwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
@@ -11392,7 +11392,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2200 Series EP2220/10 - Espressomachine - 2 Soorten Koffie + Heet Water - Zwart / Matzwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
@@ -11414,7 +11414,7 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2200 Series EP2220/10 - Espressomachine - 2 Soorten Koffie + Heet Water - Zwart / Matzwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
@@ -11436,7 +11436,7 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2200 Series EP2220/10 - Espressomachine - 2 Soorten Koffie + Heet Water - Zwart / Matzwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
@@ -11458,7 +11458,7 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2200 Series EP2220/10 - Espressomachine - 2 Soorten Koffie + Heet Water - Zwart / Matzwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
@@ -11480,7 +11480,7 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2200 Series EP2220/10 - Espressomachine - 2 Soorten Koffie + Heet Water - Zwart / Matzwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
@@ -11502,7 +11502,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2200 Series EP2220/10 - Espressomachine - 2 Soorten Koffie + Heet Water - Zwart / Matzwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
@@ -11524,7 +11524,7 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2200 Series EP2220/10 - Espressomachine - 2 Soorten Koffie + Heet Water - Zwart / Matzwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
@@ -11546,7 +11546,7 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2200 Series EP2220/10 - Espressomachine - 2 Soorten Koffie + Heet Water - Zwart / Matzwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
@@ -11568,7 +11568,7 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2200 Series EP2220/10 - Espressomachine - 2 Soorten Koffie + Heet Water - Zwart / Matzwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
@@ -11590,7 +11590,7 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2200 Series EP2220/10 - Espressomachine - 2 Soorten Koffie + Heet Water - Zwart / Matzwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
@@ -11612,7 +11612,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2200 Series EP2220/10 - Espressomachine - 2 Soorten Koffie + Heet Water - Zwart / Matzwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
@@ -11634,7 +11634,7 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2200 Series EP2220/10 - Espressomachine - 2 Soorten Koffie + Heet Water - Zwart / Matzwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
@@ -11656,7 +11656,7 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2200 Series EP2220/10 - Espressomachine - 2 Soorten Koffie + Heet Water - Zwart / Matzwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
@@ -11678,7 +11678,7 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2200 Series EP2220/10 - Espressomachine - 2 Soorten Koffie + Heet Water - Zwart / Matzwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
@@ -11700,7 +11700,7 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2200 Series EP2220/10 - Espressomachine - 2 Soorten Koffie + Heet Water - Zwart / Matzwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
@@ -11722,7 +11722,7 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2200 Series EP2220/10 - Espressomachine - 2 Soorten Koffie + Heet Water - Zwart / Matzwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
@@ -11744,7 +11744,7 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2200 Series EP2220/10 - Espressomachine - 2 Soorten Koffie + Heet Water - Zwart / Matzwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
@@ -11766,7 +11766,7 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2200 Series EP2220/10 - Espressomachine - 2 Soorten Koffie + Heet Water - Zwart / Matzwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
@@ -11788,7 +11788,7 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2200 Series EP2220/10 - Espressomachine - 2 Soorten Koffie + Heet Water - Zwart / Matzwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
@@ -11810,7 +11810,7 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2200 Series EP2220/10 - Espressomachine - 2 Soorten Koffie + Heet Water - Zwart / Matzwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
@@ -11832,7 +11832,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2200 Series EP2220/10 - Espressomachine - 2 Soorten Koffie + Heet Water - Zwart / Matzwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
@@ -11854,7 +11854,7 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2200 Series EP2220/10 - Espressomachine - 2 Soorten Koffie + Heet Water - Zwart / Matzwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
@@ -11876,7 +11876,7 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2200 Series EP2220/10 - Espressomachine - 2 Soorten Koffie + Heet Water - Zwart / Matzwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
@@ -11898,7 +11898,7 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2200 Series EP2220/10 - Espressomachine - 2 Soorten Koffie + Heet Water - Zwart / Matzwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
@@ -11920,7 +11920,7 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2200 Series EP2220/10 - Espressomachine - 2 Soorten Koffie + Heet Water - Zwart / Matzwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
@@ -11942,7 +11942,7 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2200 Series EP2220/10 - Espressomachine - 2 Soorten Koffie + Heet Water - Zwart / Matzwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
@@ -11964,7 +11964,7 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2200 Series EP2220/10 - Espressomachine - 2 Soorten Koffie + Heet Water - Zwart / Matzwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
@@ -11986,7 +11986,7 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2200 Series EP2220/10 - Espressomachine - 2 Soorten Koffie + Heet Water - Zwart / Matzwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
@@ -12008,7 +12008,7 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2200 Series EP2220/10 - Espressomachine - 2 Soorten Koffie + Heet Water - Zwart / Matzwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
@@ -12030,7 +12030,7 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2200 Series EP2220/10 - Espressomachine - 2 Soorten Koffie + Heet Water - Zwart / Matzwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
@@ -12052,7 +12052,7 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2200 Series EP2220/10 - Espressomachine - 2 Soorten Koffie + Heet Water - Zwart / Matzwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
@@ -12074,7 +12074,7 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2200 Series EP2220/10 - Espressomachine - 2 Soorten Koffie + Heet Water - Zwart / Matzwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
@@ -12096,7 +12096,7 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2200 Series EP2220/10 - Espressomachine - 2 Soorten Koffie + Heet Water - Zwart / Matzwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
@@ -12118,7 +12118,7 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2200 Series EP2220/10 - Espressomachine - 2 Soorten Koffie + Heet Water - Zwart / Matzwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
@@ -12140,7 +12140,7 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2200 Series EP2220/10 - Espressomachine - 2 Soorten Koffie + Heet Water - Zwart / Matzwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
@@ -12162,7 +12162,7 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2200 Series EP2220/10 - Espressomachine - 2 Soorten Koffie + Heet Water - Zwart / Matzwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
@@ -12184,7 +12184,7 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2200 Series EP2220/10 - Espressomachine - 2 Soorten Koffie + Heet Water - Zwart / Matzwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
@@ -12206,7 +12206,7 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2200 Series EP2220/10 - Espressomachine - 2 Soorten Koffie + Heet Water - Zwart / Matzwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
@@ -12228,7 +12228,7 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2200 Series EP2220/10 - Espressomachine - 2 Soorten Koffie + Heet Water - Zwart / Matzwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
@@ -12250,7 +12250,7 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2200 Series EP2220/10 - Espressomachine - 2 Soorten Koffie + Heet Water - Zwart / Matzwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
@@ -12272,7 +12272,7 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2200 Series EP2220/10 - Espressomachine - 2 Soorten Koffie + Heet Water - Zwart / Matzwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
@@ -12294,7 +12294,7 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2200 Series EP2220/10 - Espressomachine - 2 Soorten Koffie + Heet Water - Zwart / Matzwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
@@ -12316,7 +12316,7 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2200 Series EP2220/10 - Espressomachine - 2 Soorten Koffie + Heet Water - Zwart / Matzwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
@@ -12338,7 +12338,7 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2200 Series EP2220/10 - Espressomachine - 2 Soorten Koffie + Heet Water - Zwart / Matzwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
@@ -12360,7 +12360,7 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2200 Series EP2220/10 - Espressomachine - 2 Soorten Koffie + Heet Water - Zwart / Matzwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
@@ -12382,7 +12382,7 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2200 Series EP2220/10 - Espressomachine - 2 Soorten Koffie + Heet Water - Zwart / Matzwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
@@ -12404,7 +12404,7 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2200 Series EP2220/10 - Espressomachine - 2 Soorten Koffie + Heet Water - Zwart / Matzwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
@@ -12426,7 +12426,7 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2200 Series EP2220/10 - Espressomachine - 2 Soorten Koffie + Heet Water - Zwart / Matzwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
@@ -12448,7 +12448,7 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2200 Series EP2220/10 - Espressomachine - 2 Soorten Koffie + Heet Water - Zwart / Matzwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
@@ -12470,7 +12470,7 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2200 Series EP2220/10 - Espressomachine - 2 Soorten Koffie + Heet Water - Zwart / Matzwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
@@ -12492,7 +12492,7 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2200 Series EP2220/10 - Espressomachine - 2 Soorten Koffie + Heet Water - Zwart / Matzwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
@@ -12514,7 +12514,7 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2200 Series EP2220/10 - Espressomachine - 2 Soorten Koffie + Heet Water - Zwart / Matzwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
@@ -12536,7 +12536,7 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2200 Series EP2220/10 - Espressomachine - 2 Soorten Koffie + Heet Water - Zwart / Matzwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
@@ -12558,7 +12558,7 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2200 Series EP2220/10 - Espressomachine - 2 Soorten Koffie + Heet Water - Zwart / Matzwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B552" t="inlineStr">
@@ -12580,7 +12580,7 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2200 Series EP2220/10 - Espressomachine - 2 Soorten Koffie + Heet Water - Zwart / Matzwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B553" t="inlineStr">
@@ -12602,7 +12602,7 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2200 Series EP2220/10 - Espressomachine - 2 Soorten Koffie + Heet Water - Zwart / Matzwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B554" t="inlineStr">
@@ -12624,7 +12624,7 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2200 Series EP2220/10 - Espressomachine - 2 Soorten Koffie + Heet Water - Zwart / Matzwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
@@ -12646,7 +12646,7 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2200 Series EP2220/10 - Espressomachine - 2 Soorten Koffie + Heet Water - Zwart / Matzwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
@@ -12668,7 +12668,7 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2200 Series EP2220/10 - Espressomachine - 2 Soorten Koffie + Heet Water - Zwart / Matzwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
@@ -12690,7 +12690,7 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2200 Series EP2220/10 - Espressomachine - 2 Soorten Koffie + Heet Water - Zwart / Matzwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
@@ -12712,7 +12712,7 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2200 Series EP2220/10 - Espressomachine - 2 Soorten Koffie + Heet Water - Zwart / Matzwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
@@ -12734,7 +12734,7 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2200 Series EP2220/10 - Espressomachine - 2 Soorten Koffie + Heet Water - Zwart / Matzwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
@@ -12756,7 +12756,7 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 2200 Series EP2220/10 - Espressomachine - 2 Soorten Koffie + Heet Water - Zwart / Matzwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
@@ -12778,7 +12778,7 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5400 Series LatteGo EP5447/90 - Espressomachine - 12 Soorten Koffie + Heet Water - Zwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
@@ -12800,7 +12800,7 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5400 Series LatteGo EP5447/90 - Espressomachine - 12 Soorten Koffie + Heet Water - Zwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B563" t="inlineStr">
@@ -12822,7 +12822,7 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5400 Series LatteGo EP5447/90 - Espressomachine - 12 Soorten Koffie + Heet Water - Zwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B564" t="inlineStr">
@@ -12844,7 +12844,7 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5400 Series LatteGo EP5447/90 - Espressomachine - 12 Soorten Koffie + Heet Water - Zwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B565" t="inlineStr">
@@ -12866,7 +12866,7 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5400 Series LatteGo EP5447/90 - Espressomachine - 12 Soorten Koffie + Heet Water - Zwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B566" t="inlineStr">
@@ -12888,7 +12888,7 @@
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5400 Series LatteGo EP5447/90 - Espressomachine - 12 Soorten Koffie + Heet Water - Zwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B567" t="inlineStr">
@@ -12910,7 +12910,7 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5400 Series LatteGo EP5447/90 - Espressomachine - 12 Soorten Koffie + Heet Water - Zwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B568" t="inlineStr">
@@ -12932,7 +12932,7 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5400 Series LatteGo EP5447/90 - Espressomachine - 12 Soorten Koffie + Heet Water - Zwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B569" t="inlineStr">
@@ -12954,7 +12954,7 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5400 Series LatteGo EP5447/90 - Espressomachine - 12 Soorten Koffie + Heet Water - Zwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B570" t="inlineStr">
@@ -12976,7 +12976,7 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5400 Series LatteGo EP5447/90 - Espressomachine - 12 Soorten Koffie + Heet Water - Zwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B571" t="inlineStr">
@@ -12998,7 +12998,7 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5400 Series LatteGo EP5447/90 - Espressomachine - 12 Soorten Koffie + Heet Water - Zwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B572" t="inlineStr">
@@ -13020,7 +13020,7 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5400 Series LatteGo EP5447/90 - Espressomachine - 12 Soorten Koffie + Heet Water - Zwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B573" t="inlineStr">
@@ -13042,7 +13042,7 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5400 Series LatteGo EP5447/90 - Espressomachine - 12 Soorten Koffie + Heet Water - Zwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B574" t="inlineStr">
@@ -13064,7 +13064,7 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5400 Series LatteGo EP5447/90 - Espressomachine - 12 Soorten Koffie + Heet Water - Zwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B575" t="inlineStr">
@@ -13086,7 +13086,7 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5400 Series LatteGo EP5447/90 - Espressomachine - 12 Soorten Koffie + Heet Water - Zwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B576" t="inlineStr">
@@ -13108,7 +13108,7 @@
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5400 Series LatteGo EP5447/90 - Espressomachine - 12 Soorten Koffie + Heet Water - Zwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B577" t="inlineStr">
@@ -13130,7 +13130,7 @@
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5400 Series LatteGo EP5447/90 - Espressomachine - 12 Soorten Koffie + Heet Water - Zwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B578" t="inlineStr">
@@ -13152,7 +13152,7 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5400 Series LatteGo EP5447/90 - Espressomachine - 12 Soorten Koffie + Heet Water - Zwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B579" t="inlineStr">
@@ -13174,7 +13174,7 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5400 Series LatteGo EP5447/90 - Espressomachine - 12 Soorten Koffie + Heet Water - Zwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B580" t="inlineStr">
@@ -13196,7 +13196,7 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5400 Series LatteGo EP5447/90 - Espressomachine - 12 Soorten Koffie + Heet Water - Zwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B581" t="inlineStr">
@@ -13218,7 +13218,7 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5400 Series LatteGo EP5447/90 - Espressomachine - 12 Soorten Koffie + Heet Water - Zwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B582" t="inlineStr">
@@ -13240,7 +13240,7 @@
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5400 Series LatteGo EP5447/90 - Espressomachine - 12 Soorten Koffie + Heet Water - Zwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B583" t="inlineStr">
@@ -13262,7 +13262,7 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5400 Series LatteGo EP5447/90 - Espressomachine - 12 Soorten Koffie + Heet Water - Zwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B584" t="inlineStr">
@@ -13284,7 +13284,7 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5400 Series LatteGo EP5447/90 - Espressomachine - 12 Soorten Koffie + Heet Water - Zwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B585" t="inlineStr">
@@ -13306,7 +13306,7 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5400 Series LatteGo EP5447/90 - Espressomachine - 12 Soorten Koffie + Heet Water - Zwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B586" t="inlineStr">
@@ -13328,7 +13328,7 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5400 Series LatteGo EP5447/90 - Espressomachine - 12 Soorten Koffie + Heet Water - Zwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B587" t="inlineStr">
@@ -13350,7 +13350,7 @@
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5400 Series LatteGo EP5447/90 - Espressomachine - 12 Soorten Koffie + Heet Water - Zwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B588" t="inlineStr">
@@ -13372,7 +13372,7 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5400 Series LatteGo EP5447/90 - Espressomachine - 12 Soorten Koffie + Heet Water - Zwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B589" t="inlineStr">
@@ -13394,7 +13394,7 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5400 Series LatteGo EP5447/90 - Espressomachine - 12 Soorten Koffie + Heet Water - Zwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B590" t="inlineStr">
@@ -13416,7 +13416,7 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5400 Series LatteGo EP5447/90 - Espressomachine - 12 Soorten Koffie + Heet Water - Zwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B591" t="inlineStr">
@@ -13438,7 +13438,7 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5400 Series LatteGo EP5447/90 - Espressomachine - 12 Soorten Koffie + Heet Water - Zwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B592" t="inlineStr">
@@ -13460,7 +13460,7 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5400 Series LatteGo EP5447/90 - Espressomachine - 12 Soorten Koffie + Heet Water - Zwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B593" t="inlineStr">
@@ -13482,7 +13482,7 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5400 Series LatteGo EP5447/90 - Espressomachine - 12 Soorten Koffie + Heet Water - Zwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B594" t="inlineStr">
@@ -13504,7 +13504,7 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5400 Series LatteGo EP5447/90 - Espressomachine - 12 Soorten Koffie + Heet Water - Zwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B595" t="inlineStr">
@@ -13526,7 +13526,7 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5400 Series LatteGo EP5447/90 - Espressomachine - 12 Soorten Koffie + Heet Water - Zwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B596" t="inlineStr">
@@ -13548,7 +13548,7 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5400 Series LatteGo EP5447/90 - Espressomachine - 12 Soorten Koffie + Heet Water - Zwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B597" t="inlineStr">
@@ -13570,7 +13570,7 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5400 Series LatteGo EP5447/90 - Espressomachine - 12 Soorten Koffie + Heet Water - Zwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B598" t="inlineStr">
@@ -13592,7 +13592,7 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5400 Series LatteGo EP5447/90 - Espressomachine - 12 Soorten Koffie + Heet Water - Zwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B599" t="inlineStr">
@@ -13614,7 +13614,7 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5400 Series LatteGo EP5447/90 - Espressomachine - 12 Soorten Koffie + Heet Water - Zwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B600" t="inlineStr">
@@ -13636,7 +13636,7 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5400 Series LatteGo EP5447/90 - Espressomachine - 12 Soorten Koffie + Heet Water - Zwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B601" t="inlineStr">
@@ -13658,7 +13658,7 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5400 Series LatteGo EP5447/90 - Espressomachine - 12 Soorten Koffie + Heet Water - Zwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B602" t="inlineStr">
@@ -13680,7 +13680,7 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5400 Series LatteGo EP5447/90 - Espressomachine - 12 Soorten Koffie + Heet Water - Zwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B603" t="inlineStr">
@@ -13702,7 +13702,7 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5400 Series LatteGo EP5447/90 - Espressomachine - 12 Soorten Koffie + Heet Water - Zwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B604" t="inlineStr">
@@ -13724,7 +13724,7 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5400 Series LatteGo EP5447/90 - Espressomachine - 12 Soorten Koffie + Heet Water - Zwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B605" t="inlineStr">
@@ -13746,7 +13746,7 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5400 Series LatteGo EP5447/90 - Espressomachine - 12 Soorten Koffie + Heet Water - Zwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B606" t="inlineStr">
@@ -13768,7 +13768,7 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5400 Series LatteGo EP5447/90 - Espressomachine - 12 Soorten Koffie + Heet Water - Zwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B607" t="inlineStr">
@@ -13790,7 +13790,7 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5400 Series LatteGo EP5447/90 - Espressomachine - 12 Soorten Koffie + Heet Water - Zwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B608" t="inlineStr">
@@ -13812,7 +13812,7 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5400 Series LatteGo EP5447/90 - Espressomachine - 12 Soorten Koffie + Heet Water - Zwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B609" t="inlineStr">
@@ -13834,7 +13834,7 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5400 Series LatteGo EP5447/90 - Espressomachine - 12 Soorten Koffie + Heet Water - Zwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B610" t="inlineStr">
@@ -13856,7 +13856,7 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5400 Series LatteGo EP5447/90 - Espressomachine - 12 Soorten Koffie + Heet Water - Zwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B611" t="inlineStr">
@@ -13878,7 +13878,7 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5400 Series LatteGo EP5447/90 - Espressomachine - 12 Soorten Koffie + Heet Water - Zwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B612" t="inlineStr">
@@ -13900,7 +13900,7 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5400 Series LatteGo EP5447/90 - Espressomachine - 12 Soorten Koffie + Heet Water - Zwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B613" t="inlineStr">
@@ -13922,7 +13922,7 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5400 Series LatteGo EP5447/90 - Espressomachine - 12 Soorten Koffie + Heet Water - Zwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B614" t="inlineStr">
@@ -13944,7 +13944,7 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5400 Series LatteGo EP5447/90 - Espressomachine - 12 Soorten Koffie + Heet Water - Zwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B615" t="inlineStr">
@@ -13966,7 +13966,7 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5400 Series LatteGo EP5447/90 - Espressomachine - 12 Soorten Koffie + Heet Water - Zwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B616" t="inlineStr">
@@ -13988,7 +13988,7 @@
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5400 Series LatteGo EP5447/90 - Espressomachine - 12 Soorten Koffie + Heet Water - Zwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B617" t="inlineStr">
@@ -14010,7 +14010,7 @@
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5400 Series LatteGo EP5447/90 - Espressomachine - 12 Soorten Koffie + Heet Water - Zwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B618" t="inlineStr">
@@ -14032,7 +14032,7 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5400 Series LatteGo EP5447/90 - Espressomachine - 12 Soorten Koffie + Heet Water - Zwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B619" t="inlineStr">
@@ -14054,7 +14054,7 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5400 Series LatteGo EP5447/90 - Espressomachine - 12 Soorten Koffie + Heet Water - Zwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B620" t="inlineStr">
@@ -14076,7 +14076,7 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5400 Series LatteGo EP5447/90 - Espressomachine - 12 Soorten Koffie + Heet Water - Zwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B621" t="inlineStr">
@@ -14098,7 +14098,7 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5400 Series LatteGo EP5447/90 - Espressomachine - 12 Soorten Koffie + Heet Water - Zwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B622" t="inlineStr">
@@ -14120,7 +14120,7 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5400 Series LatteGo EP5447/90 - Espressomachine - 12 Soorten Koffie + Heet Water - Zwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B623" t="inlineStr">
@@ -14142,7 +14142,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5400 Series LatteGo EP5447/90 - Espressomachine - 12 Soorten Koffie + Heet Water - Zwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B624" t="inlineStr">
@@ -14164,7 +14164,7 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5400 Series LatteGo EP5447/90 - Espressomachine - 12 Soorten Koffie + Heet Water - Zwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B625" t="inlineStr">
@@ -14186,7 +14186,7 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5400 Series LatteGo EP5447/90 - Espressomachine - 12 Soorten Koffie + Heet Water - Zwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B626" t="inlineStr">
@@ -14208,7 +14208,7 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5400 Series LatteGo EP5447/90 - Espressomachine - 12 Soorten Koffie + Heet Water - Zwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B627" t="inlineStr">
@@ -14230,7 +14230,7 @@
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5400 Series LatteGo EP5447/90 - Espressomachine - 12 Soorten Koffie + Heet Water - Zwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B628" t="inlineStr">
@@ -14252,7 +14252,7 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5400 Series LatteGo EP5447/90 - Espressomachine - 12 Soorten Koffie + Heet Water - Zwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B629" t="inlineStr">
@@ -14274,7 +14274,7 @@
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5400 Series LatteGo EP5447/90 - Espressomachine - 12 Soorten Koffie + Heet Water - Zwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B630" t="inlineStr">
@@ -14296,7 +14296,7 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5400 Series LatteGo EP5447/90 - Espressomachine - 12 Soorten Koffie + Heet Water - Zwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B631" t="inlineStr">
@@ -14318,7 +14318,7 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5400 Series LatteGo EP5447/90 - Espressomachine - 12 Soorten Koffie + Heet Water - Zwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B632" t="inlineStr">
@@ -14340,7 +14340,7 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5400 Series LatteGo EP5447/90 - Espressomachine - 12 Soorten Koffie + Heet Water - Zwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B633" t="inlineStr">
@@ -14362,7 +14362,7 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5400 Series LatteGo EP5447/90 - Espressomachine - 12 Soorten Koffie + Heet Water - Zwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B634" t="inlineStr">
@@ -14384,7 +14384,7 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5400 Series LatteGo EP5447/90 - Espressomachine - 12 Soorten Koffie + Heet Water - Zwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B635" t="inlineStr">
@@ -14406,7 +14406,7 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips 5400 Series LatteGo EP5447/90 - Espressomachine - 12 Soorten Koffie + Heet Water - Zwart - + AquaClean Filter</t>
         </is>
       </c>
       <c r="B636" t="inlineStr">
@@ -14428,7 +14428,7 @@
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Baristina - BAR300/60 - Espressomachine - Pistonmachine - Zwart</t>
         </is>
       </c>
       <c r="B637" t="inlineStr">
@@ -14450,7 +14450,7 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Baristina - BAR300/60 - Espressomachine - Pistonmachine - Zwart</t>
         </is>
       </c>
       <c r="B638" t="inlineStr">
@@ -14472,7 +14472,7 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Baristina - BAR300/60 - Espressomachine - Pistonmachine - Zwart</t>
         </is>
       </c>
       <c r="B639" t="inlineStr">
@@ -14494,7 +14494,7 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Baristina - BAR300/60 - Espressomachine - Pistonmachine - Zwart</t>
         </is>
       </c>
       <c r="B640" t="inlineStr">
@@ -14516,7 +14516,7 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Baristina - BAR300/60 - Espressomachine - Pistonmachine - Zwart</t>
         </is>
       </c>
       <c r="B641" t="inlineStr">
@@ -14538,7 +14538,7 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Baristina - BAR300/60 - Espressomachine - Pistonmachine - Zwart</t>
         </is>
       </c>
       <c r="B642" t="inlineStr">
@@ -14560,7 +14560,7 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Baristina - BAR300/60 - Espressomachine - Pistonmachine - Zwart</t>
         </is>
       </c>
       <c r="B643" t="inlineStr">
@@ -14582,7 +14582,7 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Baristina - BAR300/60 - Espressomachine - Pistonmachine - Zwart</t>
         </is>
       </c>
       <c r="B644" t="inlineStr">
@@ -14604,7 +14604,7 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Baristina - BAR300/60 - Espressomachine - Pistonmachine - Zwart</t>
         </is>
       </c>
       <c r="B645" t="inlineStr">
@@ -14626,7 +14626,7 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Baristina - BAR300/60 - Espressomachine - Pistonmachine - Zwart</t>
         </is>
       </c>
       <c r="B646" t="inlineStr">
@@ -14648,7 +14648,7 @@
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Baristina - BAR300/60 - Espressomachine - Pistonmachine - Zwart</t>
         </is>
       </c>
       <c r="B647" t="inlineStr">
@@ -14670,7 +14670,7 @@
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Baristina - BAR300/60 - Espressomachine - Pistonmachine - Zwart</t>
         </is>
       </c>
       <c r="B648" t="inlineStr">
@@ -14692,7 +14692,7 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Baristina - BAR300/60 - Espressomachine - Pistonmachine - Zwart</t>
         </is>
       </c>
       <c r="B649" t="inlineStr">
@@ -14714,7 +14714,7 @@
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Baristina - BAR300/60 - Espressomachine - Pistonmachine - Zwart</t>
         </is>
       </c>
       <c r="B650" t="inlineStr">
@@ -14736,7 +14736,7 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Baristina - BAR300/60 - Espressomachine - Pistonmachine - Zwart</t>
         </is>
       </c>
       <c r="B651" t="inlineStr">
@@ -14758,7 +14758,7 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Baristina - BAR300/60 - Espressomachine - Pistonmachine - Zwart</t>
         </is>
       </c>
       <c r="B652" t="inlineStr">
@@ -14780,7 +14780,7 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Baristina - BAR300/60 - Espressomachine - Pistonmachine - Zwart</t>
         </is>
       </c>
       <c r="B653" t="inlineStr">
@@ -14802,7 +14802,7 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Baristina - BAR300/60 - Espressomachine - Pistonmachine - Zwart</t>
         </is>
       </c>
       <c r="B654" t="inlineStr">
@@ -14824,7 +14824,7 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Baristina - BAR300/60 - Espressomachine - Pistonmachine - Zwart</t>
         </is>
       </c>
       <c r="B655" t="inlineStr">
@@ -14846,7 +14846,7 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Baristina - BAR300/60 - Espressomachine - Pistonmachine - Zwart</t>
         </is>
       </c>
       <c r="B656" t="inlineStr">
@@ -14868,7 +14868,7 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Baristina - BAR300/60 - Espressomachine - Pistonmachine - Zwart</t>
         </is>
       </c>
       <c r="B657" t="inlineStr">
@@ -14890,7 +14890,7 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Baristina - BAR300/60 - Espressomachine - Pistonmachine - Zwart</t>
         </is>
       </c>
       <c r="B658" t="inlineStr">
@@ -14912,7 +14912,7 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Baristina - BAR300/60 - Espressomachine - Pistonmachine - Zwart</t>
         </is>
       </c>
       <c r="B659" t="inlineStr">
@@ -14934,7 +14934,7 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Baristina - BAR300/60 - Espressomachine - Pistonmachine - Zwart</t>
         </is>
       </c>
       <c r="B660" t="inlineStr">
@@ -14956,7 +14956,7 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Baristina - BAR300/60 - Espressomachine - Pistonmachine - Zwart</t>
         </is>
       </c>
       <c r="B661" t="inlineStr">
@@ -14978,7 +14978,7 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Baristina - BAR300/60 - Espressomachine - Pistonmachine - Zwart</t>
         </is>
       </c>
       <c r="B662" t="inlineStr">
@@ -15000,7 +15000,7 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Baristina - BAR300/60 - Espressomachine - Pistonmachine - Zwart</t>
         </is>
       </c>
       <c r="B663" t="inlineStr">
@@ -15022,7 +15022,7 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Baristina - BAR300/60 - Espressomachine - Pistonmachine - Zwart</t>
         </is>
       </c>
       <c r="B664" t="inlineStr">
@@ -15044,7 +15044,7 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Baristina - BAR300/60 - Espressomachine - Pistonmachine - Zwart</t>
         </is>
       </c>
       <c r="B665" t="inlineStr">
@@ -15066,7 +15066,7 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Baristina - BAR300/60 - Espressomachine - Pistonmachine - Zwart</t>
         </is>
       </c>
       <c r="B666" t="inlineStr">
@@ -15088,7 +15088,7 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Baristina - BAR300/60 - Espressomachine - Pistonmachine - Zwart</t>
         </is>
       </c>
       <c r="B667" t="inlineStr">
@@ -15110,7 +15110,7 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Baristina - BAR300/60 - Espressomachine - Pistonmachine - Zwart</t>
         </is>
       </c>
       <c r="B668" t="inlineStr">
@@ -15132,7 +15132,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Baristina - BAR300/60 - Espressomachine - Pistonmachine - Zwart</t>
         </is>
       </c>
       <c r="B669" t="inlineStr">
@@ -15154,7 +15154,7 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Baristina - BAR300/60 - Espressomachine - Pistonmachine - Zwart</t>
         </is>
       </c>
       <c r="B670" t="inlineStr">
@@ -15176,7 +15176,7 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Baristina - BAR300/60 - Espressomachine - Pistonmachine - Zwart</t>
         </is>
       </c>
       <c r="B671" t="inlineStr">
@@ -15198,7 +15198,7 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Baristina - BAR300/60 - Espressomachine - Pistonmachine - Zwart</t>
         </is>
       </c>
       <c r="B672" t="inlineStr">
@@ -15220,7 +15220,7 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Baristina - BAR300/60 - Espressomachine - Pistonmachine - Zwart</t>
         </is>
       </c>
       <c r="B673" t="inlineStr">
@@ -15242,7 +15242,7 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Baristina - BAR300/60 - Espressomachine - Pistonmachine - Zwart</t>
         </is>
       </c>
       <c r="B674" t="inlineStr">
@@ -15264,7 +15264,7 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Baristina - BAR300/60 - Espressomachine - Pistonmachine - Zwart</t>
         </is>
       </c>
       <c r="B675" t="inlineStr">
@@ -15286,7 +15286,7 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Baristina - BAR300/60 - Espressomachine - Pistonmachine - Zwart</t>
         </is>
       </c>
       <c r="B676" t="inlineStr">
@@ -15308,7 +15308,7 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Baristina - BAR300/60 - Espressomachine - Pistonmachine - Zwart</t>
         </is>
       </c>
       <c r="B677" t="inlineStr">
@@ -15330,7 +15330,7 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Baristina - BAR300/60 - Espressomachine - Pistonmachine - Zwart</t>
         </is>
       </c>
       <c r="B678" t="inlineStr">
@@ -15352,7 +15352,7 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Baristina - BAR300/60 - Espressomachine - Pistonmachine - Zwart</t>
         </is>
       </c>
       <c r="B679" t="inlineStr">
@@ -15374,7 +15374,7 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Baristina - BAR300/60 - Espressomachine - Pistonmachine - Zwart</t>
         </is>
       </c>
       <c r="B680" t="inlineStr">
@@ -15396,7 +15396,7 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Baristina - BAR300/60 - Espressomachine - Pistonmachine - Zwart</t>
         </is>
       </c>
       <c r="B681" t="inlineStr">
@@ -15418,7 +15418,7 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Baristina - BAR300/60 - Espressomachine - Pistonmachine - Zwart</t>
         </is>
       </c>
       <c r="B682" t="inlineStr">
@@ -15440,7 +15440,7 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Baristina - BAR300/60 - Espressomachine - Pistonmachine - Zwart</t>
         </is>
       </c>
       <c r="B683" t="inlineStr">
@@ -15462,7 +15462,7 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Baristina - BAR300/60 - Espressomachine - Pistonmachine - Zwart</t>
         </is>
       </c>
       <c r="B684" t="inlineStr">
@@ -15484,7 +15484,7 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Baristina - BAR300/60 - Espressomachine - Pistonmachine - Zwart</t>
         </is>
       </c>
       <c r="B685" t="inlineStr">
@@ -15506,7 +15506,7 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Baristina - BAR300/60 - Espressomachine - Pistonmachine - Zwart</t>
         </is>
       </c>
       <c r="B686" t="inlineStr">
@@ -15528,7 +15528,7 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Baristina - BAR300/60 - Espressomachine - Pistonmachine - Zwart</t>
         </is>
       </c>
       <c r="B687" t="inlineStr">
@@ -15550,7 +15550,7 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Baristina - BAR300/60 - Espressomachine - Pistonmachine - Zwart</t>
         </is>
       </c>
       <c r="B688" t="inlineStr">
@@ -15572,7 +15572,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Baristina - BAR300/60 - Espressomachine - Pistonmachine - Zwart</t>
         </is>
       </c>
       <c r="B689" t="inlineStr">
@@ -15594,7 +15594,7 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Baristina - BAR300/60 - Espressomachine - Pistonmachine - Zwart</t>
         </is>
       </c>
       <c r="B690" t="inlineStr">
@@ -15616,7 +15616,7 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Baristina - BAR300/60 - Espressomachine - Pistonmachine - Zwart</t>
         </is>
       </c>
       <c r="B691" t="inlineStr">
@@ -15638,7 +15638,7 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Baristina - BAR300/60 - Espressomachine - Pistonmachine - Zwart</t>
         </is>
       </c>
       <c r="B692" t="inlineStr">
@@ -15660,7 +15660,7 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Baristina - BAR300/60 - Espressomachine - Pistonmachine - Zwart</t>
         </is>
       </c>
       <c r="B693" t="inlineStr">
@@ -15682,7 +15682,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Baristina - BAR300/60 - Espressomachine - Pistonmachine - Zwart</t>
         </is>
       </c>
       <c r="B694" t="inlineStr">
@@ -15704,7 +15704,7 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Baristina - BAR300/60 - Espressomachine - Pistonmachine - Zwart</t>
         </is>
       </c>
       <c r="B695" t="inlineStr">
@@ -15726,7 +15726,7 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Baristina - BAR300/60 - Espressomachine - Pistonmachine - Zwart</t>
         </is>
       </c>
       <c r="B696" t="inlineStr">
@@ -15748,7 +15748,7 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Baristina - BAR300/60 - Espressomachine - Pistonmachine - Zwart</t>
         </is>
       </c>
       <c r="B697" t="inlineStr">
@@ -15770,7 +15770,7 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Baristina - BAR300/60 - Espressomachine - Pistonmachine - Zwart</t>
         </is>
       </c>
       <c r="B698" t="inlineStr">
@@ -15792,7 +15792,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Baristina - BAR300/60 - Espressomachine - Pistonmachine - Zwart</t>
         </is>
       </c>
       <c r="B699" t="inlineStr">
@@ -15814,7 +15814,7 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Baristina - BAR300/60 - Espressomachine - Pistonmachine - Zwart</t>
         </is>
       </c>
       <c r="B700" t="inlineStr">
@@ -15836,7 +15836,7 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Baristina - BAR300/60 - Espressomachine - Pistonmachine - Zwart</t>
         </is>
       </c>
       <c r="B701" t="inlineStr">
@@ -15858,7 +15858,7 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Baristina - BAR300/60 - Espressomachine - Pistonmachine - Zwart</t>
         </is>
       </c>
       <c r="B702" t="inlineStr">
@@ -15880,7 +15880,7 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Steelstofzuiger met Dweilfunctie XW9383/01 Aqua Trio - Draadloos - Zuigmond met LED Verlichting - Kruimeldief - Zonder Zak - LCD Display - Lichtgewicht - Zwart</t>
         </is>
       </c>
       <c r="B703" t="inlineStr">
@@ -15902,7 +15902,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Steelstofzuiger met Dweilfunctie XW9383/01 Aqua Trio - Draadloos - Zuigmond met LED Verlichting - Kruimeldief - Zonder Zak - LCD Display - Lichtgewicht - Zwart</t>
         </is>
       </c>
       <c r="B704" t="inlineStr">
@@ -15924,7 +15924,7 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Steelstofzuiger met Dweilfunctie XW9383/01 Aqua Trio - Draadloos - Zuigmond met LED Verlichting - Kruimeldief - Zonder Zak - LCD Display - Lichtgewicht - Zwart</t>
         </is>
       </c>
       <c r="B705" t="inlineStr">
@@ -15946,7 +15946,7 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Steelstofzuiger met Dweilfunctie XW9383/01 Aqua Trio - Draadloos - Zuigmond met LED Verlichting - Kruimeldief - Zonder Zak - LCD Display - Lichtgewicht - Zwart</t>
         </is>
       </c>
       <c r="B706" t="inlineStr">
@@ -15968,7 +15968,7 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Steelstofzuiger met Dweilfunctie XW9383/01 Aqua Trio - Draadloos - Zuigmond met LED Verlichting - Kruimeldief - Zonder Zak - LCD Display - Lichtgewicht - Zwart</t>
         </is>
       </c>
       <c r="B707" t="inlineStr">
@@ -15990,7 +15990,7 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Steelstofzuiger met Dweilfunctie XW9383/01 Aqua Trio - Draadloos - Zuigmond met LED Verlichting - Kruimeldief - Zonder Zak - LCD Display - Lichtgewicht - Zwart</t>
         </is>
       </c>
       <c r="B708" t="inlineStr">
@@ -16012,7 +16012,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Steelstofzuiger met Dweilfunctie XW9383/01 Aqua Trio - Draadloos - Zuigmond met LED Verlichting - Kruimeldief - Zonder Zak - LCD Display - Lichtgewicht - Zwart</t>
         </is>
       </c>
       <c r="B709" t="inlineStr">
@@ -16034,7 +16034,7 @@
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Steelstofzuiger met Dweilfunctie XW9383/01 Aqua Trio - Draadloos - Zuigmond met LED Verlichting - Kruimeldief - Zonder Zak - LCD Display - Lichtgewicht - Zwart</t>
         </is>
       </c>
       <c r="B710" t="inlineStr">
@@ -16056,7 +16056,7 @@
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Steelstofzuiger met Dweilfunctie XW9383/01 Aqua Trio - Draadloos - Zuigmond met LED Verlichting - Kruimeldief - Zonder Zak - LCD Display - Lichtgewicht - Zwart</t>
         </is>
       </c>
       <c r="B711" t="inlineStr">
@@ -16078,7 +16078,7 @@
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Steelstofzuiger met Dweilfunctie XW9383/01 Aqua Trio - Draadloos - Zuigmond met LED Verlichting - Kruimeldief - Zonder Zak - LCD Display - Lichtgewicht - Zwart</t>
         </is>
       </c>
       <c r="B712" t="inlineStr">
@@ -16100,7 +16100,7 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Steelstofzuiger met Dweilfunctie XW9383/01 Aqua Trio - Draadloos - Zuigmond met LED Verlichting - Kruimeldief - Zonder Zak - LCD Display - Lichtgewicht - Zwart</t>
         </is>
       </c>
       <c r="B713" t="inlineStr">
@@ -16122,7 +16122,7 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Steelstofzuiger met Dweilfunctie XW9383/01 Aqua Trio - Draadloos - Zuigmond met LED Verlichting - Kruimeldief - Zonder Zak - LCD Display - Lichtgewicht - Zwart</t>
         </is>
       </c>
       <c r="B714" t="inlineStr">
@@ -16144,7 +16144,7 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Steelstofzuiger met Dweilfunctie XW9383/01 Aqua Trio - Draadloos - Zuigmond met LED Verlichting - Kruimeldief - Zonder Zak - LCD Display - Lichtgewicht - Zwart</t>
         </is>
       </c>
       <c r="B715" t="inlineStr">
@@ -16166,7 +16166,7 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Steelstofzuiger met Dweilfunctie XW9383/01 Aqua Trio - Draadloos - Zuigmond met LED Verlichting - Kruimeldief - Zonder Zak - LCD Display - Lichtgewicht - Zwart</t>
         </is>
       </c>
       <c r="B716" t="inlineStr">
@@ -16188,7 +16188,7 @@
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Steelstofzuiger met Dweilfunctie XW9383/01 Aqua Trio - Draadloos - Zuigmond met LED Verlichting - Kruimeldief - Zonder Zak - LCD Display - Lichtgewicht - Zwart</t>
         </is>
       </c>
       <c r="B717" t="inlineStr">
@@ -16210,7 +16210,7 @@
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Steelstofzuiger met Dweilfunctie XW9383/01 Aqua Trio - Draadloos - Zuigmond met LED Verlichting - Kruimeldief - Zonder Zak - LCD Display - Lichtgewicht - Zwart</t>
         </is>
       </c>
       <c r="B718" t="inlineStr">
@@ -16232,7 +16232,7 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Steelstofzuiger met Dweilfunctie XW9383/01 Aqua Trio - Draadloos - Zuigmond met LED Verlichting - Kruimeldief - Zonder Zak - LCD Display - Lichtgewicht - Zwart</t>
         </is>
       </c>
       <c r="B719" t="inlineStr">
@@ -16254,7 +16254,7 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Steelstofzuiger met Dweilfunctie XW9383/01 Aqua Trio - Draadloos - Zuigmond met LED Verlichting - Kruimeldief - Zonder Zak - LCD Display - Lichtgewicht - Zwart</t>
         </is>
       </c>
       <c r="B720" t="inlineStr">
@@ -16276,7 +16276,7 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Steelstofzuiger met Dweilfunctie XW9383/01 Aqua Trio - Draadloos - Zuigmond met LED Verlichting - Kruimeldief - Zonder Zak - LCD Display - Lichtgewicht - Zwart</t>
         </is>
       </c>
       <c r="B721" t="inlineStr">
@@ -16298,7 +16298,7 @@
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Steelstofzuiger met Dweilfunctie XW9383/01 Aqua Trio - Draadloos - Zuigmond met LED Verlichting - Kruimeldief - Zonder Zak - LCD Display - Lichtgewicht - Zwart</t>
         </is>
       </c>
       <c r="B722" t="inlineStr">
@@ -16320,7 +16320,7 @@
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Steelstofzuiger met Dweilfunctie XW9383/01 Aqua Trio - Draadloos - Zuigmond met LED Verlichting - Kruimeldief - Zonder Zak - LCD Display - Lichtgewicht - Zwart</t>
         </is>
       </c>
       <c r="B723" t="inlineStr">
@@ -16342,7 +16342,7 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Steelstofzuiger met Dweilfunctie XW9383/01 Aqua Trio - Draadloos - Zuigmond met LED Verlichting - Kruimeldief - Zonder Zak - LCD Display - Lichtgewicht - Zwart</t>
         </is>
       </c>
       <c r="B724" t="inlineStr">
@@ -16364,7 +16364,7 @@
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Steelstofzuiger met Dweilfunctie XW9383/01 Aqua Trio - Draadloos - Zuigmond met LED Verlichting - Kruimeldief - Zonder Zak - LCD Display - Lichtgewicht - Zwart</t>
         </is>
       </c>
       <c r="B725" t="inlineStr">
@@ -16386,7 +16386,7 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Steelstofzuiger met Dweilfunctie XW9383/01 Aqua Trio - Draadloos - Zuigmond met LED Verlichting - Kruimeldief - Zonder Zak - LCD Display - Lichtgewicht - Zwart</t>
         </is>
       </c>
       <c r="B726" t="inlineStr">
@@ -16408,7 +16408,7 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Steelstofzuiger met Dweilfunctie XW9383/01 Aqua Trio - Draadloos - Zuigmond met LED Verlichting - Kruimeldief - Zonder Zak - LCD Display - Lichtgewicht - Zwart</t>
         </is>
       </c>
       <c r="B727" t="inlineStr">
@@ -16430,7 +16430,7 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Steelstofzuiger met Dweilfunctie XW9383/01 Aqua Trio - Draadloos - Zuigmond met LED Verlichting - Kruimeldief - Zonder Zak - LCD Display - Lichtgewicht - Zwart</t>
         </is>
       </c>
       <c r="B728" t="inlineStr">
@@ -16452,7 +16452,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Steelstofzuiger met Dweilfunctie XW9383/01 Aqua Trio - Draadloos - Zuigmond met LED Verlichting - Kruimeldief - Zonder Zak - LCD Display - Lichtgewicht - Zwart</t>
         </is>
       </c>
       <c r="B729" t="inlineStr">
@@ -16474,7 +16474,7 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Steelstofzuiger met Dweilfunctie XW9383/01 Aqua Trio - Draadloos - Zuigmond met LED Verlichting - Kruimeldief - Zonder Zak - LCD Display - Lichtgewicht - Zwart</t>
         </is>
       </c>
       <c r="B730" t="inlineStr">
@@ -16496,7 +16496,7 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Steelstofzuiger met Dweilfunctie XW9383/01 Aqua Trio - Draadloos - Zuigmond met LED Verlichting - Kruimeldief - Zonder Zak - LCD Display - Lichtgewicht - Zwart</t>
         </is>
       </c>
       <c r="B731" t="inlineStr">
@@ -16520,7 +16520,7 @@
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Steelstofzuiger met Dweilfunctie XW9383/01 Aqua Trio - Draadloos - Zuigmond met LED Verlichting - Kruimeldief - Zonder Zak - LCD Display - Lichtgewicht - Zwart</t>
         </is>
       </c>
       <c r="B732" t="inlineStr">
@@ -16542,7 +16542,7 @@
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Steelstofzuiger met Dweilfunctie XW9383/01 Aqua Trio - Draadloos - Zuigmond met LED Verlichting - Kruimeldief - Zonder Zak - LCD Display - Lichtgewicht - Zwart</t>
         </is>
       </c>
       <c r="B733" t="inlineStr">
@@ -16564,7 +16564,7 @@
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Steelstofzuiger met Dweilfunctie XW9383/01 Aqua Trio - Draadloos - Zuigmond met LED Verlichting - Kruimeldief - Zonder Zak - LCD Display - Lichtgewicht - Zwart</t>
         </is>
       </c>
       <c r="B734" t="inlineStr">
@@ -16586,7 +16586,7 @@
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Steelstofzuiger met Dweilfunctie XW9383/01 Aqua Trio - Draadloos - Zuigmond met LED Verlichting - Kruimeldief - Zonder Zak - LCD Display - Lichtgewicht - Zwart</t>
         </is>
       </c>
       <c r="B735" t="inlineStr">
@@ -16608,7 +16608,7 @@
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Steelstofzuiger met Dweilfunctie XW9383/01 Aqua Trio - Draadloos - Zuigmond met LED Verlichting - Kruimeldief - Zonder Zak - LCD Display - Lichtgewicht - Zwart</t>
         </is>
       </c>
       <c r="B736" t="inlineStr">
@@ -16630,7 +16630,7 @@
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Steelstofzuiger met Dweilfunctie XW9383/01 Aqua Trio - Draadloos - Zuigmond met LED Verlichting - Kruimeldief - Zonder Zak - LCD Display - Lichtgewicht - Zwart</t>
         </is>
       </c>
       <c r="B737" t="inlineStr">
@@ -16652,7 +16652,7 @@
     <row r="738">
       <c r="A738" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Steelstofzuiger met Dweilfunctie XW9383/01 Aqua Trio - Draadloos - Zuigmond met LED Verlichting - Kruimeldief - Zonder Zak - LCD Display - Lichtgewicht - Zwart</t>
         </is>
       </c>
       <c r="B738" t="inlineStr">
@@ -16674,7 +16674,7 @@
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Steelstofzuiger met Dweilfunctie XW9383/01 Aqua Trio - Draadloos - Zuigmond met LED Verlichting - Kruimeldief - Zonder Zak - LCD Display - Lichtgewicht - Zwart</t>
         </is>
       </c>
       <c r="B739" t="inlineStr">
@@ -16696,7 +16696,7 @@
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Steelstofzuiger met Dweilfunctie XW9383/01 Aqua Trio - Draadloos - Zuigmond met LED Verlichting - Kruimeldief - Zonder Zak - LCD Display - Lichtgewicht - Zwart</t>
         </is>
       </c>
       <c r="B740" t="inlineStr">
@@ -16718,7 +16718,7 @@
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Steelstofzuiger met Dweilfunctie XW9383/01 Aqua Trio - Draadloos - Zuigmond met LED Verlichting - Kruimeldief - Zonder Zak - LCD Display - Lichtgewicht - Zwart</t>
         </is>
       </c>
       <c r="B741" t="inlineStr">
@@ -16740,7 +16740,7 @@
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Steelstofzuiger met Dweilfunctie XW9383/01 Aqua Trio - Draadloos - Zuigmond met LED Verlichting - Kruimeldief - Zonder Zak - LCD Display - Lichtgewicht - Zwart</t>
         </is>
       </c>
       <c r="B742" t="inlineStr">
@@ -16762,7 +16762,7 @@
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Steelstofzuiger met Dweilfunctie XW9383/01 Aqua Trio - Draadloos - Zuigmond met LED Verlichting - Kruimeldief - Zonder Zak - LCD Display - Lichtgewicht - Zwart</t>
         </is>
       </c>
       <c r="B743" t="inlineStr">
@@ -16784,7 +16784,7 @@
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Steelstofzuiger met Dweilfunctie XW9383/01 Aqua Trio - Draadloos - Zuigmond met LED Verlichting - Kruimeldief - Zonder Zak - LCD Display - Lichtgewicht - Zwart</t>
         </is>
       </c>
       <c r="B744" t="inlineStr">
@@ -16806,7 +16806,7 @@
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Steelstofzuiger met Dweilfunctie XW9383/01 Aqua Trio - Draadloos - Zuigmond met LED Verlichting - Kruimeldief - Zonder Zak - LCD Display - Lichtgewicht - Zwart</t>
         </is>
       </c>
       <c r="B745" t="inlineStr">
@@ -16828,7 +16828,7 @@
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Steelstofzuiger met Dweilfunctie XW9383/01 Aqua Trio - Draadloos - Zuigmond met LED Verlichting - Kruimeldief - Zonder Zak - LCD Display - Lichtgewicht - Zwart</t>
         </is>
       </c>
       <c r="B746" t="inlineStr">
@@ -16850,7 +16850,7 @@
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Steelstofzuiger met Dweilfunctie XW9383/01 Aqua Trio - Draadloos - Zuigmond met LED Verlichting - Kruimeldief - Zonder Zak - LCD Display - Lichtgewicht - Zwart</t>
         </is>
       </c>
       <c r="B747" t="inlineStr">
@@ -16872,7 +16872,7 @@
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Steelstofzuiger met Dweilfunctie XW9383/01 Aqua Trio - Draadloos - Zuigmond met LED Verlichting - Kruimeldief - Zonder Zak - LCD Display - Lichtgewicht - Zwart</t>
         </is>
       </c>
       <c r="B748" t="inlineStr">
@@ -16894,7 +16894,7 @@
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Steelstofzuiger met Dweilfunctie XW9383/01 Aqua Trio - Draadloos - Zuigmond met LED Verlichting - Kruimeldief - Zonder Zak - LCD Display - Lichtgewicht - Zwart</t>
         </is>
       </c>
       <c r="B749" t="inlineStr">
@@ -16916,7 +16916,7 @@
     <row r="750">
       <c r="A750" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Steelstofzuiger met Dweilfunctie XW9383/01 Aqua Trio - Draadloos - Zuigmond met LED Verlichting - Kruimeldief - Zonder Zak - LCD Display - Lichtgewicht - Zwart</t>
         </is>
       </c>
       <c r="B750" t="inlineStr">
@@ -16938,7 +16938,7 @@
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Steelstofzuiger met Dweilfunctie XW9383/01 Aqua Trio - Draadloos - Zuigmond met LED Verlichting - Kruimeldief - Zonder Zak - LCD Display - Lichtgewicht - Zwart</t>
         </is>
       </c>
       <c r="B751" t="inlineStr">
@@ -16960,7 +16960,7 @@
     <row r="752">
       <c r="A752" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Steelstofzuiger met Dweilfunctie XW9383/01 Aqua Trio - Draadloos - Zuigmond met LED Verlichting - Kruimeldief - Zonder Zak - LCD Display - Lichtgewicht - Zwart</t>
         </is>
       </c>
       <c r="B752" t="inlineStr">
@@ -16982,7 +16982,7 @@
     <row r="753">
       <c r="A753" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Steelstofzuiger met Dweilfunctie XW9383/01 Aqua Trio - Draadloos - Zuigmond met LED Verlichting - Kruimeldief - Zonder Zak - LCD Display - Lichtgewicht - Zwart</t>
         </is>
       </c>
       <c r="B753" t="inlineStr">
@@ -17004,7 +17004,7 @@
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Steelstofzuiger met Dweilfunctie XW9383/01 Aqua Trio - Draadloos - Zuigmond met LED Verlichting - Kruimeldief - Zonder Zak - LCD Display - Lichtgewicht - Zwart</t>
         </is>
       </c>
       <c r="B754" t="inlineStr">
@@ -17026,7 +17026,7 @@
     <row r="755">
       <c r="A755" t="inlineStr">
         <is>
-          <t>Philips 3000 Series Airfryer - NA341/00 - Kijkvenster - RapidAir Plus - 7.2L - Tot 6 Personen - Zwart</t>
+          <t>Philips Steelstofzuiger met Dweilfunctie XW9383/01 Aqua Trio - Draadloos - Zuigmond met LED Verlichting - Kruimeldief - Zonder Zak - LCD Display - Lichtgewicht - Zwart</t>
         </is>
       </c>
       <c r="B755" t="inlineStr">
